--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D013B21B-60B5-40F2-ADCD-996488F829B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D810E28A-F997-410D-9F07-8019395C0051}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="1155" windowWidth="13710" windowHeight="10950" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="3120" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2203,6 +2203,9 @@
       <c r="E64">
         <v>1</v>
       </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
       <c r="H64">
         <f>C64*B64</f>
         <v>0</v>
@@ -2219,6 +2222,9 @@
         <v>15</v>
       </c>
       <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="F65">
         <v>15</v>
       </c>
       <c r="H65">
@@ -2239,6 +2245,9 @@
       <c r="E66">
         <v>117</v>
       </c>
+      <c r="F66">
+        <v>119</v>
+      </c>
       <c r="H66">
         <f t="shared" si="18"/>
         <v>242</v>
@@ -2257,6 +2266,9 @@
       <c r="E67">
         <v>597</v>
       </c>
+      <c r="F67">
+        <v>632</v>
+      </c>
       <c r="H67">
         <f t="shared" si="18"/>
         <v>1950</v>
@@ -2275,6 +2287,9 @@
       <c r="E68">
         <v>2121</v>
       </c>
+      <c r="F68">
+        <v>2371</v>
+      </c>
       <c r="H68">
         <f t="shared" si="18"/>
         <v>9500</v>
@@ -2293,6 +2308,9 @@
       <c r="E69">
         <v>5287</v>
       </c>
+      <c r="F69">
+        <v>6146</v>
+      </c>
       <c r="H69">
         <f t="shared" si="18"/>
         <v>29725</v>
@@ -2311,6 +2329,9 @@
       <c r="E70">
         <v>9826</v>
       </c>
+      <c r="F70">
+        <v>10803</v>
+      </c>
       <c r="H70">
         <f t="shared" si="18"/>
         <v>61014</v>
@@ -2329,6 +2350,9 @@
       <c r="E71">
         <v>11979</v>
       </c>
+      <c r="F71">
+        <v>11683</v>
+      </c>
       <c r="H71">
         <f t="shared" si="18"/>
         <v>78442</v>
@@ -2347,6 +2371,9 @@
       <c r="E72">
         <v>7614</v>
       </c>
+      <c r="F72">
+        <v>6430</v>
+      </c>
       <c r="H72">
         <f t="shared" si="18"/>
         <v>55552</v>
@@ -2365,6 +2392,9 @@
       <c r="E73">
         <v>2466</v>
       </c>
+      <c r="F73">
+        <v>1888</v>
+      </c>
       <c r="H73">
         <f t="shared" si="18"/>
         <v>20808</v>
@@ -2383,6 +2413,9 @@
       <c r="E74">
         <v>283</v>
       </c>
+      <c r="F74">
+        <v>223</v>
+      </c>
       <c r="H74">
         <f t="shared" si="18"/>
         <v>4930</v>
@@ -2400,6 +2433,9 @@
       </c>
       <c r="E75">
         <v>14</v>
+      </c>
+      <c r="F75">
+        <v>9</v>
       </c>
       <c r="H75">
         <f t="shared" si="18"/>
@@ -2428,6 +2464,9 @@
       </c>
       <c r="E77">
         <v>6.5937003968253904</v>
+      </c>
+      <c r="F77">
+        <v>6.4415426587301496</v>
       </c>
       <c r="H77">
         <f>SUM(H64:H76)</f>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D810E28A-F997-410D-9F07-8019395C0051}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83979564-85CC-45AD-92EF-963148225CAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="2775" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>vanillla</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>permute_&amp;controlmin_&amp;bidirectional</t>
+  </si>
+  <si>
+    <t>partial_with_controlmin</t>
+  </si>
+  <si>
+    <t>0.         1.5        2.92857143 4.27715774 5.50131803 6.55160236</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.35283447 7.7624659  7.2953373 </t>
+  </si>
+  <si>
+    <t>for each don't care percentage</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1</v>
       </c>
@@ -2232,7 +2244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>2</v>
       </c>
@@ -2253,7 +2265,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>3</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>4</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>29725</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>6</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>61014</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>7</v>
       </c>
@@ -2358,7 +2370,7 @@
         <v>78442</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>8</v>
       </c>
@@ -2379,7 +2391,7 @@
         <v>55552</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>9</v>
       </c>
@@ -2400,7 +2412,7 @@
         <v>20808</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>10</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>11</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>12</v>
       </c>
@@ -2454,7 +2466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C77">
         <f>H77/SUM(C64:C76)</f>
         <v>6.5267857142857144</v>
@@ -2471,6 +2483,258 @@
       <c r="H77">
         <f>SUM(H64:H76)</f>
         <v>263160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>256</v>
+      </c>
+      <c r="H81">
+        <f>B81*C81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2304</v>
+      </c>
+      <c r="H82">
+        <f t="shared" ref="H82:H98" si="19">B82*C82</f>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>11775</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="19"/>
+        <v>23550</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>39087</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="19"/>
+        <v>117261</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>96307</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="19"/>
+        <v>385228</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>179173</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="19"/>
+        <v>895865</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>252447</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="19"/>
+        <v>1514682</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>278007</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="19"/>
+        <v>1946049</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>243912</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="19"/>
+        <v>1951296</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>172476</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="19"/>
+        <v>1552284</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>98057</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="19"/>
+        <v>980570</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>45261</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="19"/>
+        <v>497871</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>16770</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="19"/>
+        <v>201240</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>4758</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="19"/>
+        <v>61854</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>997</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="19"/>
+        <v>13958</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>127</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="19"/>
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>14</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="19"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <f>H100/SUM(C81:C98)</f>
+        <v>7.0374931765956017</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f>SUM(H81:H98)</f>
+        <v>10146158</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine/Documents/GitHub/finals/quantum-logic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83979564-85CC-45AD-92EF-963148225CAF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9F72B-4D94-E741-BBE3-94792DED7FD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="2780" yWindow="2220" windowWidth="21600" windowHeight="11380" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,25 +62,35 @@
     <t>partial_with_controlmin</t>
   </si>
   <si>
-    <t>0.         1.5        2.92857143 4.27715774 5.50131803 6.55160236</t>
+    <t>care_terms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 7.35283447 7.7624659  7.2953373 </t>
+    <t>degree of care terms average gate count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>for each don't care percentage</t>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -423,15 +430,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2">
         <v>0</v>
       </c>
@@ -484,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3">
         <v>1</v>
       </c>
@@ -517,7 +524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4">
         <v>2</v>
       </c>
@@ -550,7 +557,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5">
         <v>3</v>
       </c>
@@ -583,7 +590,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6">
         <v>4</v>
       </c>
@@ -616,7 +623,7 @@
         <v>10564</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7">
         <v>5</v>
       </c>
@@ -649,7 +656,7 @@
         <v>25270</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8">
         <v>6</v>
       </c>
@@ -682,7 +689,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9">
         <v>7</v>
       </c>
@@ -715,7 +722,7 @@
         <v>60256</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>8</v>
       </c>
@@ -748,7 +755,7 @@
         <v>59608</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>9</v>
       </c>
@@ -781,7 +788,7 @@
         <v>42570</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12">
         <v>10</v>
       </c>
@@ -814,7 +821,7 @@
         <v>20980</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13">
         <v>11</v>
       </c>
@@ -847,7 +854,7 @@
         <v>6655</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14">
         <v>12</v>
       </c>
@@ -880,7 +887,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15">
         <v>13</v>
       </c>
@@ -913,7 +920,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16">
         <v>14</v>
       </c>
@@ -946,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="B17">
         <v>15</v>
       </c>
@@ -979,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="B18">
         <v>16</v>
       </c>
@@ -1009,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="B19">
         <v>17</v>
       </c>
@@ -1039,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="H20">
         <f>SUM(H2:H19)</f>
         <v>349632</v>
@@ -1057,7 +1064,7 @@
         <v>276385</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="C21">
         <f>H20/SUM(C2:C19)</f>
         <v>8.6714285714285708</v>
@@ -1075,7 +1082,7 @@
         <v>6.8547867063492065</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25">
         <v>0</v>
       </c>
@@ -1128,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="B26">
         <v>1</v>
       </c>
@@ -1161,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="B27">
         <v>2</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="B28">
         <v>3</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="B29">
         <v>4</v>
       </c>
@@ -1260,7 +1267,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30">
         <v>5</v>
       </c>
@@ -1293,7 +1300,7 @@
         <v>19435</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="B31">
         <v>6</v>
       </c>
@@ -1326,7 +1333,7 @@
         <v>42396</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1359,7 +1366,7 @@
         <v>66794</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="B33">
         <v>8</v>
       </c>
@@ -1392,7 +1399,7 @@
         <v>73144</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="B34">
         <v>9</v>
       </c>
@@ -1425,7 +1432,7 @@
         <v>52326</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="B35">
         <v>10</v>
       </c>
@@ -1458,7 +1465,7 @@
         <v>22130</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="B36">
         <v>11</v>
       </c>
@@ -1491,7 +1498,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="B37">
         <v>12</v>
       </c>
@@ -1524,7 +1531,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="B38">
         <v>13</v>
       </c>
@@ -1554,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="B39">
         <v>14</v>
       </c>
@@ -1584,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="C40">
         <f>H40/SUM(C25:C39)</f>
         <v>7.6460317460317464</v>
@@ -1618,7 +1625,7 @@
         <v>289064</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="B44">
         <v>0</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="B45">
         <v>1</v>
       </c>
@@ -1704,7 +1711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="B46">
         <v>2</v>
       </c>
@@ -1737,7 +1744,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="B47">
         <v>3</v>
       </c>
@@ -1770,7 +1777,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="B48">
         <v>4</v>
       </c>
@@ -1803,7 +1810,7 @@
         <v>6616</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="B49">
         <v>5</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>19965</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="B50">
         <v>6</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>43668</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="B51">
         <v>7</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>67921</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="B52">
         <v>8</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>72848</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="B53">
         <v>9</v>
       </c>
@@ -1968,7 +1975,7 @@
         <v>50364</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="B54">
         <v>10</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>20310</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="B55">
         <v>11</v>
       </c>
@@ -2034,7 +2041,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="B56">
         <v>12</v>
       </c>
@@ -2067,7 +2074,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="B57">
         <v>13</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="B58">
         <v>14</v>
       </c>
@@ -2124,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="B59">
         <v>15</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="C60">
         <f>H60/SUM(C44:C59)</f>
         <v>7.6678901812951068</v>
@@ -2182,7 +2189,7 @@
         <v>287132</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="B64">
         <v>0</v>
       </c>
@@ -2223,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="B65">
         <v>1</v>
       </c>
@@ -2244,7 +2251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="B66">
         <v>2</v>
       </c>
@@ -2265,7 +2272,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="B67">
         <v>3</v>
       </c>
@@ -2286,7 +2293,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="B68">
         <v>4</v>
       </c>
@@ -2307,7 +2314,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="B69">
         <v>5</v>
       </c>
@@ -2328,7 +2335,7 @@
         <v>29725</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="B70">
         <v>6</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>61014</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="B71">
         <v>7</v>
       </c>
@@ -2370,7 +2377,7 @@
         <v>78442</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="B72">
         <v>8</v>
       </c>
@@ -2391,7 +2398,7 @@
         <v>55552</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="B73">
         <v>9</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>20808</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="B74">
         <v>10</v>
       </c>
@@ -2433,7 +2440,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="B75">
         <v>11</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="B76">
         <v>12</v>
       </c>
@@ -2466,7 +2473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="C77">
         <f>H77/SUM(C64:C76)</f>
         <v>6.5267857142857144</v>
@@ -2485,7 +2492,7 @@
         <v>263160</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2495,8 +2502,17 @@
       <c r="C80" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
       <c r="B81">
         <v>0</v>
       </c>
@@ -2507,8 +2523,14 @@
         <f>B81*C81</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
       <c r="B82">
         <v>1</v>
       </c>
@@ -2519,8 +2541,14 @@
         <f t="shared" ref="H82:H98" si="19">B82*C82</f>
         <v>2304</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
       <c r="B83">
         <v>2</v>
       </c>
@@ -2531,8 +2559,14 @@
         <f t="shared" si="19"/>
         <v>23550</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>2.9285714299999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
       <c r="B84">
         <v>3</v>
       </c>
@@ -2543,8 +2577,14 @@
         <f t="shared" si="19"/>
         <v>117261</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>4.2771577399999998</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
       <c r="B85">
         <v>4</v>
       </c>
@@ -2555,8 +2595,14 @@
         <f t="shared" si="19"/>
         <v>385228</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>5.5013180300000002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
       <c r="B86">
         <v>5</v>
       </c>
@@ -2567,8 +2613,14 @@
         <f t="shared" si="19"/>
         <v>895865</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>5</v>
+      </c>
+      <c r="L86">
+        <v>6.5516023600000004</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
       <c r="B87">
         <v>6</v>
       </c>
@@ -2579,8 +2631,14 @@
         <f t="shared" si="19"/>
         <v>1514682</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>6</v>
+      </c>
+      <c r="L87">
+        <v>7.3528344700000003</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
       <c r="B88">
         <v>7</v>
       </c>
@@ -2591,8 +2649,14 @@
         <f t="shared" si="19"/>
         <v>1946049</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>7</v>
+      </c>
+      <c r="L88">
+        <v>7.7624658999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
       <c r="B89">
         <v>8</v>
       </c>
@@ -2603,8 +2667,14 @@
         <f t="shared" si="19"/>
         <v>1951296</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>8</v>
+      </c>
+      <c r="L89">
+        <v>7.2953372999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
       <c r="B90">
         <v>9</v>
       </c>
@@ -2616,7 +2686,7 @@
         <v>1552284</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12">
       <c r="B91">
         <v>10</v>
       </c>
@@ -2628,7 +2698,7 @@
         <v>980570</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12">
       <c r="B92">
         <v>11</v>
       </c>
@@ -2640,7 +2710,7 @@
         <v>497871</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12">
       <c r="B93">
         <v>12</v>
       </c>
@@ -2652,7 +2722,7 @@
         <v>201240</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12">
       <c r="B94">
         <v>13</v>
       </c>
@@ -2664,7 +2734,7 @@
         <v>61854</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12">
       <c r="B95">
         <v>14</v>
       </c>
@@ -2676,7 +2746,7 @@
         <v>13958</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12">
       <c r="B96">
         <v>15</v>
       </c>
@@ -2688,7 +2758,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8">
       <c r="B97">
         <v>16</v>
       </c>
@@ -2700,7 +2770,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8">
       <c r="B98">
         <v>17</v>
       </c>
@@ -2712,32 +2782,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8">
       <c r="C99">
         <f>H100/SUM(C81:C98)</f>
         <v>7.0374931765956017</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8">
       <c r="H100">
         <f>SUM(H81:H98)</f>
         <v>10146158</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>12</v>
-      </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine/Documents/GitHub/finals/quantum-logic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F9F72B-4D94-E741-BBE3-94792DED7FD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB77B2-B9C9-44A4-A905-F7D54E5C6EC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="2220" windowWidth="21600" windowHeight="11380" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="2775" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>vanillla</t>
   </si>
@@ -73,6 +76,9 @@
     <t>DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>partial</t>
+  </si>
 </sst>
 </file>
 
@@ -82,13 +88,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -430,13 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2502,6 +2508,9 @@
       <c r="C80" t="s">
         <v>2</v>
       </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
       <c r="J80" t="s">
         <v>11</v>
       </c>
@@ -2512,13 +2521,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:12">
+    <row r="81" spans="2:14">
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
         <v>256</v>
       </c>
+      <c r="E81">
+        <v>256</v>
+      </c>
       <c r="H81">
         <f>B81*C81</f>
         <v>0</v>
@@ -2529,12 +2541,18 @@
       <c r="L81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:12">
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
       <c r="B82">
         <v>1</v>
       </c>
       <c r="C82">
+        <v>2304</v>
+      </c>
+      <c r="E82">
         <v>2304</v>
       </c>
       <c r="H82">
@@ -2547,13 +2565,19 @@
       <c r="L82">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="83" spans="2:12">
+      <c r="N82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83">
         <v>11775</v>
+      </c>
+      <c r="E83">
+        <v>12050</v>
       </c>
       <c r="H83">
         <f t="shared" si="19"/>
@@ -2565,13 +2589,19 @@
       <c r="L83">
         <v>2.9285714299999999</v>
       </c>
-    </row>
-    <row r="84" spans="2:12">
+      <c r="N83">
+        <v>2.88010204081632</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
         <v>39087</v>
+      </c>
+      <c r="E84">
+        <v>41673</v>
       </c>
       <c r="H84">
         <f t="shared" si="19"/>
@@ -2583,13 +2613,19 @@
       <c r="L84">
         <v>4.2771577399999998</v>
       </c>
-    </row>
-    <row r="85" spans="2:12">
+      <c r="N84">
+        <v>4.1506696428571397</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14">
       <c r="B85">
         <v>4</v>
       </c>
       <c r="C85">
         <v>96307</v>
+      </c>
+      <c r="E85">
+        <v>107261</v>
       </c>
       <c r="H85">
         <f t="shared" si="19"/>
@@ -2601,13 +2637,19 @@
       <c r="L85">
         <v>5.5013180300000002</v>
       </c>
-    </row>
-    <row r="86" spans="2:12">
+      <c r="N85">
+        <v>5.2740986394557803</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14">
       <c r="B86">
         <v>5</v>
       </c>
       <c r="C86">
         <v>179173</v>
+      </c>
+      <c r="E86">
+        <v>204523</v>
       </c>
       <c r="H86">
         <f t="shared" si="19"/>
@@ -2619,13 +2661,19 @@
       <c r="L86">
         <v>6.5516023600000004</v>
       </c>
-    </row>
-    <row r="87" spans="2:12">
+      <c r="N86">
+        <v>6.2364370748299303</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14">
       <c r="B87">
         <v>6</v>
       </c>
       <c r="C87">
         <v>252447</v>
+      </c>
+      <c r="E87">
+        <v>289762</v>
       </c>
       <c r="H87">
         <f t="shared" si="19"/>
@@ -2637,13 +2685,19 @@
       <c r="L87">
         <v>7.3528344700000003</v>
       </c>
-    </row>
-    <row r="88" spans="2:12">
+      <c r="N87">
+        <v>6.9776342828798104</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14">
       <c r="B88">
         <v>7</v>
       </c>
       <c r="C88">
         <v>278007</v>
+      </c>
+      <c r="E88">
+        <v>309577</v>
       </c>
       <c r="H88">
         <f t="shared" si="19"/>
@@ -2655,13 +2709,19 @@
       <c r="L88">
         <v>7.7624658999999996</v>
       </c>
-    </row>
-    <row r="89" spans="2:12">
+      <c r="N88">
+        <v>7.3621155753968202</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14">
       <c r="B89">
         <v>8</v>
       </c>
       <c r="C89">
         <v>243912</v>
+      </c>
+      <c r="E89">
+        <v>245532</v>
       </c>
       <c r="H89">
         <f t="shared" si="19"/>
@@ -2673,92 +2733,116 @@
       <c r="L89">
         <v>7.2953372999999999</v>
       </c>
-    </row>
-    <row r="90" spans="2:12">
+      <c r="N89">
+        <v>7.0687251984126904</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14">
       <c r="B90">
         <v>9</v>
       </c>
       <c r="C90">
         <v>172476</v>
+      </c>
+      <c r="E90">
+        <v>142914</v>
       </c>
       <c r="H90">
         <f t="shared" si="19"/>
         <v>1552284</v>
       </c>
     </row>
-    <row r="91" spans="2:12">
+    <row r="91" spans="2:14">
       <c r="B91">
         <v>10</v>
       </c>
       <c r="C91">
         <v>98057</v>
+      </c>
+      <c r="E91">
+        <v>61588</v>
       </c>
       <c r="H91">
         <f t="shared" si="19"/>
         <v>980570</v>
       </c>
     </row>
-    <row r="92" spans="2:12">
+    <row r="92" spans="2:14">
       <c r="B92">
         <v>11</v>
       </c>
       <c r="C92">
         <v>45261</v>
+      </c>
+      <c r="E92">
+        <v>19088</v>
       </c>
       <c r="H92">
         <f t="shared" si="19"/>
         <v>497871</v>
       </c>
     </row>
-    <row r="93" spans="2:12">
+    <row r="93" spans="2:14">
       <c r="B93">
         <v>12</v>
       </c>
       <c r="C93">
         <v>16770</v>
+      </c>
+      <c r="E93">
+        <v>4400</v>
       </c>
       <c r="H93">
         <f t="shared" si="19"/>
         <v>201240</v>
       </c>
     </row>
-    <row r="94" spans="2:12">
+    <row r="94" spans="2:14">
       <c r="B94">
         <v>13</v>
       </c>
       <c r="C94">
         <v>4758</v>
+      </c>
+      <c r="E94">
+        <v>728</v>
       </c>
       <c r="H94">
         <f t="shared" si="19"/>
         <v>61854</v>
       </c>
     </row>
-    <row r="95" spans="2:12">
+    <row r="95" spans="2:14">
       <c r="B95">
         <v>14</v>
       </c>
       <c r="C95">
         <v>997</v>
+      </c>
+      <c r="E95">
+        <v>71</v>
       </c>
       <c r="H95">
         <f t="shared" si="19"/>
         <v>13958</v>
       </c>
     </row>
-    <row r="96" spans="2:12">
+    <row r="96" spans="2:14">
       <c r="B96">
         <v>15</v>
       </c>
       <c r="C96">
         <v>127</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
       </c>
       <c r="H96">
         <f t="shared" si="19"/>
         <v>1905</v>
       </c>
     </row>
-    <row r="97" spans="2:8">
+    <row r="97" spans="1:14">
       <c r="B97">
         <v>16</v>
       </c>
@@ -2770,7 +2854,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="98" spans="2:8">
+    <row r="98" spans="1:14">
       <c r="B98">
         <v>17</v>
       </c>
@@ -2782,16 +2866,486 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="1:14">
       <c r="C99">
         <f>H100/SUM(C81:C98)</f>
         <v>7.0374931765956017</v>
       </c>
-    </row>
-    <row r="100" spans="2:8">
+      <c r="E99">
+        <v>6.6921807080248703</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="H100">
         <f>SUM(H81:H98)</f>
         <v>10146158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="J103" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>256</v>
+      </c>
+      <c r="D104">
+        <v>256</v>
+      </c>
+      <c r="E104">
+        <v>256</v>
+      </c>
+      <c r="H104">
+        <f>B104*C104</f>
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>2304</v>
+      </c>
+      <c r="D105">
+        <v>2304</v>
+      </c>
+      <c r="E105">
+        <v>2304</v>
+      </c>
+      <c r="H105">
+        <f t="shared" ref="H105:H121" si="20">B105*C105</f>
+        <v>2304</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>1.5</v>
+      </c>
+      <c r="M105">
+        <v>1.5</v>
+      </c>
+      <c r="N105">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>11664</v>
+      </c>
+      <c r="D106">
+        <v>11568</v>
+      </c>
+      <c r="E106">
+        <v>11904</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="20"/>
+        <v>23328</v>
+      </c>
+      <c r="K106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>2.9381377551020398</v>
+      </c>
+      <c r="M106">
+        <v>2.94132653061224</v>
+      </c>
+      <c r="N106">
+        <v>2.8832908163265301</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>39552</v>
+      </c>
+      <c r="D107">
+        <v>38768</v>
+      </c>
+      <c r="E107">
+        <v>42184</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="20"/>
+        <v>118656</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107">
+        <v>4.2907100340135997</v>
+      </c>
+      <c r="M107">
+        <v>4.3012861394557804</v>
+      </c>
+      <c r="N107">
+        <v>4.1397746598639404</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>95890</v>
+      </c>
+      <c r="D108">
+        <v>93588</v>
+      </c>
+      <c r="E108">
+        <v>108505</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="20"/>
+        <v>383560</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>5.5226530612244797</v>
+      </c>
+      <c r="M108">
+        <v>5.5444812925170002</v>
+      </c>
+      <c r="N108">
+        <v>5.2545493197278903</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>175180</v>
+      </c>
+      <c r="D109">
+        <v>172170</v>
+      </c>
+      <c r="E109">
+        <v>209600</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="20"/>
+        <v>875900</v>
+      </c>
+      <c r="K109">
+        <v>5</v>
+      </c>
+      <c r="L109">
+        <v>6.5826238307823104</v>
+      </c>
+      <c r="M109">
+        <v>6.6140837585033996</v>
+      </c>
+      <c r="N109">
+        <v>6.1976801658163199</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>246944</v>
+      </c>
+      <c r="D110">
+        <v>246441</v>
+      </c>
+      <c r="E110">
+        <v>300439</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="20"/>
+        <v>1481664</v>
+      </c>
+      <c r="K110">
+        <v>6</v>
+      </c>
+      <c r="L110">
+        <v>7.3937145691609896</v>
+      </c>
+      <c r="M110">
+        <v>7.41267361111111</v>
+      </c>
+      <c r="N110">
+        <v>6.9106859410430799</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="B111">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>274555</v>
+      </c>
+      <c r="D111">
+        <v>278506</v>
+      </c>
+      <c r="E111">
+        <v>316812</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="20"/>
+        <v>1921885</v>
+      </c>
+      <c r="K111">
+        <v>7</v>
+      </c>
+      <c r="L111">
+        <v>7.81460503472222</v>
+      </c>
+      <c r="M111">
+        <v>7.7519097222222202</v>
+      </c>
+      <c r="N111">
+        <v>7.2730716765872998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>244637</v>
+      </c>
+      <c r="D112">
+        <v>249574</v>
+      </c>
+      <c r="E112">
+        <v>240858</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="20"/>
+        <v>1957096</v>
+      </c>
+      <c r="K112">
+        <v>8</v>
+      </c>
+      <c r="L112">
+        <v>7.3954365079365001</v>
+      </c>
+      <c r="M112">
+        <v>7.3079365079364997</v>
+      </c>
+      <c r="N112">
+        <v>7.0051587301587297</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>175487</v>
+      </c>
+      <c r="D113">
+        <v>178157</v>
+      </c>
+      <c r="E113">
+        <v>133759</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="20"/>
+        <v>1579383</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>101805</v>
+      </c>
+      <c r="D114">
+        <v>101964</v>
+      </c>
+      <c r="E114">
+        <v>54643</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="20"/>
+        <v>1018050</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>47916</v>
+      </c>
+      <c r="D115">
+        <v>46427</v>
+      </c>
+      <c r="E115">
+        <v>16276</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="20"/>
+        <v>527076</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116">
+        <v>12</v>
+      </c>
+      <c r="C116">
+        <v>18332</v>
+      </c>
+      <c r="D116">
+        <v>16548</v>
+      </c>
+      <c r="E116">
+        <v>3531</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="20"/>
+        <v>219984</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117">
+        <v>13</v>
+      </c>
+      <c r="C117">
+        <v>5581</v>
+      </c>
+      <c r="D117">
+        <v>4478</v>
+      </c>
+      <c r="E117">
+        <v>597</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="20"/>
+        <v>72553</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>1322</v>
+      </c>
+      <c r="D118">
+        <v>873</v>
+      </c>
+      <c r="E118">
+        <v>60</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="20"/>
+        <v>18508</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119">
+        <v>15</v>
+      </c>
+      <c r="C119">
+        <v>272</v>
+      </c>
+      <c r="D119">
+        <v>98</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="20"/>
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="20"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121">
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="C122">
+        <f>H123/SUM(C104:C121)</f>
+        <v>7.0779883043207148</v>
+      </c>
+      <c r="D122">
+        <v>7.0790710320732897</v>
+      </c>
+      <c r="E122">
+        <v>6.6324191300861601</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="H123">
+        <f>SUM(H104:H121)</f>
+        <v>10204541</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB77B2-B9C9-44A4-A905-F7D54E5C6EC6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883833B-8988-4CA4-8B9A-D7EB9CD201DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>vanillla</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>partial</t>
+  </si>
+  <si>
+    <t>permute&amp;controlmin</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -1049,10 +1052,22 @@
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>116.531379</v>
       </c>
     </row>
     <row r="20" spans="1:11">
+      <c r="C20">
+        <v>8.6714289999999998</v>
+      </c>
+      <c r="D20">
+        <v>8.6714289999999998</v>
+      </c>
+      <c r="E20">
+        <v>8.7214290000000005</v>
+      </c>
+      <c r="F20">
+        <v>6.854787</v>
+      </c>
       <c r="H20">
         <f>SUM(H2:H19)</f>
         <v>349632</v>
@@ -1067,7 +1082,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>276385</v>
+        <v>276501.53137899999</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1085,7 +1100,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="5"/>
-        <v>6.8547867063492065</v>
+        <v>6.8576768695188486</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1631,6 +1646,17 @@
         <v>289064</v>
       </c>
     </row>
+    <row r="41" spans="1:11">
+      <c r="C41">
+        <v>7.6460319999999999</v>
+      </c>
+      <c r="D41">
+        <v>7.7666700000000004</v>
+      </c>
+      <c r="E41">
+        <v>7.7353170000000002</v>
+      </c>
+    </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>7</v>
@@ -2508,6 +2534,9 @@
       <c r="C80" t="s">
         <v>2</v>
       </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
       <c r="E80" t="s">
         <v>4</v>
       </c>
@@ -2528,6 +2557,9 @@
       <c r="C81">
         <v>256</v>
       </c>
+      <c r="D81">
+        <v>256</v>
+      </c>
       <c r="E81">
         <v>256</v>
       </c>
@@ -2535,10 +2567,17 @@
         <f>B81*C81</f>
         <v>0</v>
       </c>
+      <c r="I81">
+        <f>B81*D81</f>
+        <v>0</v>
+      </c>
       <c r="K81">
         <v>0</v>
       </c>
       <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
@@ -2552,6 +2591,9 @@
       <c r="C82">
         <v>2304</v>
       </c>
+      <c r="D82">
+        <v>2304</v>
+      </c>
       <c r="E82">
         <v>2304</v>
       </c>
@@ -2559,10 +2601,17 @@
         <f t="shared" ref="H82:H98" si="19">B82*C82</f>
         <v>2304</v>
       </c>
+      <c r="I82">
+        <f t="shared" ref="I82:I98" si="20">B82*D82</f>
+        <v>2304</v>
+      </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="L82">
+        <v>1.5</v>
+      </c>
+      <c r="M82">
         <v>1.5</v>
       </c>
       <c r="N82">
@@ -2574,20 +2623,30 @@
         <v>2</v>
       </c>
       <c r="C83">
-        <v>11775</v>
+        <v>11812</v>
+      </c>
+      <c r="D83">
+        <v>11715</v>
       </c>
       <c r="E83">
         <v>12050</v>
       </c>
       <c r="H83">
         <f t="shared" si="19"/>
-        <v>23550</v>
+        <v>23624</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="20"/>
+        <v>23430</v>
       </c>
       <c r="K83">
         <v>2</v>
       </c>
       <c r="L83">
-        <v>2.9285714299999999</v>
+        <v>2.9266581632653001</v>
+      </c>
+      <c r="M83">
+        <v>2.94132653061224</v>
       </c>
       <c r="N83">
         <v>2.88010204081632</v>
@@ -2598,20 +2657,30 @@
         <v>3</v>
       </c>
       <c r="C84">
-        <v>39087</v>
+        <v>39067</v>
+      </c>
+      <c r="D84">
+        <v>38055</v>
       </c>
       <c r="E84">
         <v>41673</v>
       </c>
       <c r="H84">
         <f t="shared" si="19"/>
-        <v>117261</v>
+        <v>117201</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="20"/>
+        <v>114165</v>
       </c>
       <c r="K84">
         <v>3</v>
       </c>
       <c r="L84">
-        <v>4.2771577399999998</v>
+        <v>4.2801339285714199</v>
+      </c>
+      <c r="M84">
+        <v>4.2936862244897904</v>
       </c>
       <c r="N84">
         <v>4.1506696428571397</v>
@@ -2622,20 +2691,30 @@
         <v>4</v>
       </c>
       <c r="C85">
-        <v>96307</v>
+        <v>96419</v>
+      </c>
+      <c r="D85">
+        <v>92442</v>
       </c>
       <c r="E85">
         <v>107261</v>
       </c>
       <c r="H85">
         <f t="shared" si="19"/>
-        <v>385228</v>
+        <v>385676</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="20"/>
+        <v>369768</v>
       </c>
       <c r="K85">
         <v>4</v>
       </c>
       <c r="L85">
-        <v>5.5013180300000002</v>
+        <v>5.5003741496598604</v>
+      </c>
+      <c r="M85">
+        <v>5.5394472789115596</v>
       </c>
       <c r="N85">
         <v>5.2740986394557803</v>
@@ -2646,20 +2725,30 @@
         <v>5</v>
       </c>
       <c r="C86">
-        <v>179173</v>
+        <v>179203</v>
+      </c>
+      <c r="D86">
+        <v>171513</v>
       </c>
       <c r="E86">
         <v>204523</v>
       </c>
       <c r="H86">
         <f t="shared" si="19"/>
-        <v>895865</v>
+        <v>896015</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="20"/>
+        <v>857565</v>
       </c>
       <c r="K86">
         <v>5</v>
       </c>
       <c r="L86">
-        <v>6.5516023600000004</v>
+        <v>6.5537627551020403</v>
+      </c>
+      <c r="M86">
+        <v>6.6128002763605398</v>
       </c>
       <c r="N86">
         <v>6.2364370748299303</v>
@@ -2670,20 +2759,30 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <v>252447</v>
+        <v>252311</v>
+      </c>
+      <c r="D87">
+        <v>245267</v>
       </c>
       <c r="E87">
         <v>289762</v>
       </c>
       <c r="H87">
         <f t="shared" si="19"/>
-        <v>1514682</v>
+        <v>1513866</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="20"/>
+        <v>1471602</v>
       </c>
       <c r="K87">
         <v>6</v>
       </c>
       <c r="L87">
-        <v>7.3528344700000003</v>
+        <v>7.3539895124716503</v>
+      </c>
+      <c r="M87">
+        <v>7.4318664965986398</v>
       </c>
       <c r="N87">
         <v>6.9776342828798104</v>
@@ -2694,20 +2793,30 @@
         <v>7</v>
       </c>
       <c r="C88">
-        <v>278007</v>
+        <v>277601</v>
+      </c>
+      <c r="D88">
+        <v>277713</v>
       </c>
       <c r="E88">
         <v>309577</v>
       </c>
       <c r="H88">
         <f t="shared" si="19"/>
-        <v>1946049</v>
+        <v>1943207</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="20"/>
+        <v>1943991</v>
       </c>
       <c r="K88">
         <v>7</v>
       </c>
       <c r="L88">
-        <v>7.7624658999999996</v>
+        <v>7.7646174355158699</v>
+      </c>
+      <c r="M88">
+        <v>7.7976004464285698</v>
       </c>
       <c r="N88">
         <v>7.3621155753968202</v>
@@ -2718,20 +2827,30 @@
         <v>8</v>
       </c>
       <c r="C89">
-        <v>243912</v>
+        <v>243871</v>
+      </c>
+      <c r="D89">
+        <v>249877</v>
       </c>
       <c r="E89">
         <v>245532</v>
       </c>
       <c r="H89">
         <f t="shared" si="19"/>
-        <v>1951296</v>
+        <v>1950968</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="20"/>
+        <v>1999016</v>
       </c>
       <c r="K89">
         <v>8</v>
       </c>
       <c r="L89">
-        <v>7.2953372999999999</v>
+        <v>7.3086557539682504</v>
+      </c>
+      <c r="M89">
+        <v>7.3886904761904697</v>
       </c>
       <c r="N89">
         <v>7.0687251984126904</v>
@@ -2742,14 +2861,21 @@
         <v>9</v>
       </c>
       <c r="C90">
-        <v>172476</v>
+        <v>171925</v>
+      </c>
+      <c r="D90">
+        <v>177614</v>
       </c>
       <c r="E90">
         <v>142914</v>
       </c>
       <c r="H90">
         <f t="shared" si="19"/>
-        <v>1552284</v>
+        <v>1547325</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="20"/>
+        <v>1598526</v>
       </c>
     </row>
     <row r="91" spans="2:14">
@@ -2757,14 +2883,21 @@
         <v>10</v>
       </c>
       <c r="C91">
-        <v>98057</v>
+        <v>98476</v>
+      </c>
+      <c r="D91">
+        <v>103251</v>
       </c>
       <c r="E91">
         <v>61588</v>
       </c>
       <c r="H91">
         <f t="shared" si="19"/>
-        <v>980570</v>
+        <v>984760</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="20"/>
+        <v>1032510</v>
       </c>
     </row>
     <row r="92" spans="2:14">
@@ -2772,14 +2905,21 @@
         <v>11</v>
       </c>
       <c r="C92">
-        <v>45261</v>
+        <v>45463</v>
+      </c>
+      <c r="D92">
+        <v>47577</v>
       </c>
       <c r="E92">
         <v>19088</v>
       </c>
       <c r="H92">
         <f t="shared" si="19"/>
-        <v>497871</v>
+        <v>500093</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="20"/>
+        <v>523347</v>
       </c>
     </row>
     <row r="93" spans="2:14">
@@ -2787,14 +2927,21 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>16770</v>
+        <v>16919</v>
+      </c>
+      <c r="D93">
+        <v>17805</v>
       </c>
       <c r="E93">
         <v>4400</v>
       </c>
       <c r="H93">
         <f t="shared" si="19"/>
-        <v>201240</v>
+        <v>203028</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="20"/>
+        <v>213660</v>
       </c>
     </row>
     <row r="94" spans="2:14">
@@ -2802,14 +2949,21 @@
         <v>13</v>
       </c>
       <c r="C94">
-        <v>4758</v>
+        <v>4906</v>
+      </c>
+      <c r="D94">
+        <v>5117</v>
       </c>
       <c r="E94">
         <v>728</v>
       </c>
       <c r="H94">
         <f t="shared" si="19"/>
-        <v>61854</v>
+        <v>63778</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="20"/>
+        <v>66521</v>
       </c>
     </row>
     <row r="95" spans="2:14">
@@ -2817,14 +2971,21 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>997</v>
+        <v>1016</v>
+      </c>
+      <c r="D95">
+        <v>1047</v>
       </c>
       <c r="E95">
         <v>71</v>
       </c>
       <c r="H95">
         <f t="shared" si="19"/>
-        <v>13958</v>
+        <v>14224</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="20"/>
+        <v>14658</v>
       </c>
     </row>
     <row r="96" spans="2:14">
@@ -2832,14 +2993,21 @@
         <v>15</v>
       </c>
       <c r="C96">
-        <v>127</v>
+        <v>154</v>
+      </c>
+      <c r="D96">
+        <v>167</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="H96">
         <f t="shared" si="19"/>
-        <v>1905</v>
+        <v>2310</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="20"/>
+        <v>2505</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -2847,11 +3015,18 @@
         <v>16</v>
       </c>
       <c r="C97">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
       </c>
       <c r="H97">
         <f t="shared" si="19"/>
-        <v>224</v>
+        <v>400</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="20"/>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -2865,11 +3040,19 @@
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
+      <c r="I98">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="C99">
         <f>H100/SUM(C81:C98)</f>
-        <v>7.0374931765956017</v>
+        <v>7.0393229240724162</v>
+      </c>
+      <c r="D99">
+        <f>I100/SUM(D81:D98)</f>
+        <v>7.0982216491448806</v>
       </c>
       <c r="E99">
         <v>6.6921807080248703</v>
@@ -2878,7 +3061,11 @@
     <row r="100" spans="1:14">
       <c r="H100">
         <f>SUM(H81:H98)</f>
-        <v>10146158</v>
+        <v>10148796</v>
+      </c>
+      <c r="I100">
+        <f>SUM(I81:I98)</f>
+        <v>10233712</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -2951,7 +3138,7 @@
         <v>2304</v>
       </c>
       <c r="H105">
-        <f t="shared" ref="H105:H121" si="20">B105*C105</f>
+        <f t="shared" ref="H105:H121" si="21">B105*C105</f>
         <v>2304</v>
       </c>
       <c r="K105">
@@ -2981,7 +3168,7 @@
         <v>11904</v>
       </c>
       <c r="H106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>23328</v>
       </c>
       <c r="K106">
@@ -3011,7 +3198,7 @@
         <v>42184</v>
       </c>
       <c r="H107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>118656</v>
       </c>
       <c r="K107">
@@ -3041,7 +3228,7 @@
         <v>108505</v>
       </c>
       <c r="H108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>383560</v>
       </c>
       <c r="K108">
@@ -3071,7 +3258,7 @@
         <v>209600</v>
       </c>
       <c r="H109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>875900</v>
       </c>
       <c r="K109">
@@ -3101,7 +3288,7 @@
         <v>300439</v>
       </c>
       <c r="H110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1481664</v>
       </c>
       <c r="K110">
@@ -3131,7 +3318,7 @@
         <v>316812</v>
       </c>
       <c r="H111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1921885</v>
       </c>
       <c r="K111">
@@ -3161,7 +3348,7 @@
         <v>240858</v>
       </c>
       <c r="H112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1957096</v>
       </c>
       <c r="K112">
@@ -3177,7 +3364,7 @@
         <v>7.0051587301587297</v>
       </c>
     </row>
-    <row r="113" spans="2:8">
+    <row r="113" spans="1:14">
       <c r="B113">
         <v>9</v>
       </c>
@@ -3191,11 +3378,11 @@
         <v>133759</v>
       </c>
       <c r="H113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1579383</v>
       </c>
     </row>
-    <row r="114" spans="2:8">
+    <row r="114" spans="1:14">
       <c r="B114">
         <v>10</v>
       </c>
@@ -3209,11 +3396,11 @@
         <v>54643</v>
       </c>
       <c r="H114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1018050</v>
       </c>
     </row>
-    <row r="115" spans="2:8">
+    <row r="115" spans="1:14">
       <c r="B115">
         <v>11</v>
       </c>
@@ -3227,11 +3414,11 @@
         <v>16276</v>
       </c>
       <c r="H115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>527076</v>
       </c>
     </row>
-    <row r="116" spans="2:8">
+    <row r="116" spans="1:14">
       <c r="B116">
         <v>12</v>
       </c>
@@ -3245,11 +3432,11 @@
         <v>3531</v>
       </c>
       <c r="H116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>219984</v>
       </c>
     </row>
-    <row r="117" spans="2:8">
+    <row r="117" spans="1:14">
       <c r="B117">
         <v>13</v>
       </c>
@@ -3263,11 +3450,11 @@
         <v>597</v>
       </c>
       <c r="H117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>72553</v>
       </c>
     </row>
-    <row r="118" spans="2:8">
+    <row r="118" spans="1:14">
       <c r="B118">
         <v>14</v>
       </c>
@@ -3281,11 +3468,11 @@
         <v>60</v>
       </c>
       <c r="H118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>18508</v>
       </c>
     </row>
-    <row r="119" spans="2:8">
+    <row r="119" spans="1:14">
       <c r="B119">
         <v>15</v>
       </c>
@@ -3299,11 +3486,11 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4080</v>
       </c>
     </row>
-    <row r="120" spans="2:8">
+    <row r="120" spans="1:14">
       <c r="B120">
         <v>16</v>
       </c>
@@ -3314,11 +3501,11 @@
         <v>9</v>
       </c>
       <c r="H120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>480</v>
       </c>
     </row>
-    <row r="121" spans="2:8">
+    <row r="121" spans="1:14">
       <c r="B121">
         <v>17</v>
       </c>
@@ -3326,11 +3513,11 @@
         <v>2</v>
       </c>
       <c r="H121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="2:8">
+    <row r="122" spans="1:14">
       <c r="C122">
         <f>H123/SUM(C104:C121)</f>
         <v>7.0779883043207148</v>
@@ -3342,10 +3529,252 @@
         <v>6.6324191300861601</v>
       </c>
     </row>
-    <row r="123" spans="2:8">
+    <row r="123" spans="1:14">
       <c r="H123">
         <f>SUM(H104:H121)</f>
         <v>10204541</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" t="s">
+        <v>10</v>
+      </c>
+      <c r="L124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>256</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>3024</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1.21875</v>
+      </c>
+      <c r="M126">
+        <v>1.5</v>
+      </c>
+      <c r="N126">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>16800</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>2.4209183673469301</v>
+      </c>
+      <c r="M127">
+        <v>2.94132653061224</v>
+      </c>
+      <c r="N127">
+        <v>2.8832908163265301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>60016</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>3.5702062074829901</v>
+      </c>
+      <c r="M128">
+        <v>4.3012861394557804</v>
+      </c>
+      <c r="N128">
+        <v>4.1397746598639404</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>150912</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>4.6569387755102003</v>
+      </c>
+      <c r="M129">
+        <v>5.5444812925170002</v>
+      </c>
+      <c r="N129">
+        <v>5.2545493197278903</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>270945</v>
+      </c>
+      <c r="K130">
+        <v>5</v>
+      </c>
+      <c r="L130">
+        <v>5.6267113095237997</v>
+      </c>
+      <c r="M130">
+        <v>6.6140837585033996</v>
+      </c>
+      <c r="N130">
+        <v>6.1976801658163199</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="B131">
+        <v>6</v>
+      </c>
+      <c r="C131">
+        <v>349140</v>
+      </c>
+      <c r="K131">
+        <v>6</v>
+      </c>
+      <c r="L131">
+        <v>6.3809275793650704</v>
+      </c>
+      <c r="M131">
+        <v>7.41267361111111</v>
+      </c>
+      <c r="N131">
+        <v>6.9106859410430799</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14">
+      <c r="B132">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>313789</v>
+      </c>
+      <c r="K132">
+        <v>7</v>
+      </c>
+      <c r="L132">
+        <v>6.7947916666666597</v>
+      </c>
+      <c r="M132">
+        <v>7.7519097222222202</v>
+      </c>
+      <c r="N132">
+        <v>7.2730716765872998</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14">
+      <c r="B133">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>186781</v>
+      </c>
+      <c r="K133">
+        <v>8</v>
+      </c>
+      <c r="L133">
+        <v>6.50838293650793</v>
+      </c>
+      <c r="M133">
+        <v>7.3079365079364997</v>
+      </c>
+      <c r="N133">
+        <v>7.0051587301587297</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14">
+      <c r="B134">
+        <v>9</v>
+      </c>
+      <c r="C134">
+        <v>71590</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14">
+      <c r="B135">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>16144</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14">
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14">
+      <c r="B137">
+        <v>12</v>
+      </c>
+      <c r="C137">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14">
+      <c r="B138">
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14">
+      <c r="C139">
+        <v>6.09837424370322</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9883833B-8988-4CA4-8B9A-D7EB9CD201DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D17BD-EA72-40C1-87E2-E4719433B2C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="2220" windowWidth="21600" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="3030" yWindow="2220" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>vanillla</t>
   </si>
@@ -80,7 +80,10 @@
     <t>partial</t>
   </si>
   <si>
-    <t>permute&amp;controlmin</t>
+    <t>partial_with_permute&amp;controlmin</t>
+  </si>
+  <si>
+    <t>partial_with_permute</t>
   </si>
 </sst>
 </file>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2262,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:14">
       <c r="B65">
         <v>1</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:14">
       <c r="B66">
         <v>2</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:14">
       <c r="B67">
         <v>3</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:14">
       <c r="B68">
         <v>4</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:14">
       <c r="B69">
         <v>5</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>29725</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:14">
       <c r="B70">
         <v>6</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>61014</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:14">
       <c r="B71">
         <v>7</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>78442</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:14">
       <c r="B72">
         <v>8</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>55552</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:14">
       <c r="B73">
         <v>9</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>20808</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:14">
       <c r="B74">
         <v>10</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:14">
       <c r="B75">
         <v>11</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:14">
       <c r="B76">
         <v>12</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:14">
       <c r="C77">
         <f>H77/SUM(C64:C76)</f>
         <v>6.5267857142857144</v>
@@ -2524,7 +2527,7 @@
         <v>263160</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2548,6 +2551,12 @@
       </c>
       <c r="L80" t="s">
         <v>12</v>
+      </c>
+      <c r="M80" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="2:14">
@@ -3093,6 +3102,12 @@
       <c r="L103" t="s">
         <v>12</v>
       </c>
+      <c r="M103" t="s">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="104" spans="1:14">
       <c r="B104">
@@ -3539,6 +3554,12 @@
       <c r="C124" t="s">
         <v>2</v>
       </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
       <c r="J124" t="s">
         <v>11</v>
       </c>
@@ -3547,6 +3568,12 @@
       </c>
       <c r="L124" t="s">
         <v>12</v>
+      </c>
+      <c r="M124" t="s">
+        <v>3</v>
+      </c>
+      <c r="N124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -3559,6 +3586,12 @@
       <c r="C125">
         <v>256</v>
       </c>
+      <c r="D125">
+        <v>256</v>
+      </c>
+      <c r="E125">
+        <v>256</v>
+      </c>
       <c r="K125">
         <v>0</v>
       </c>
@@ -3579,6 +3612,12 @@
       <c r="C126">
         <v>3024</v>
       </c>
+      <c r="D126">
+        <v>3024</v>
+      </c>
+      <c r="E126">
+        <v>3024</v>
+      </c>
       <c r="K126">
         <v>1</v>
       </c>
@@ -3586,10 +3625,10 @@
         <v>1.21875</v>
       </c>
       <c r="M126">
-        <v>1.5</v>
+        <v>1.21875</v>
       </c>
       <c r="N126">
-        <v>1.5</v>
+        <v>1.21875</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -3599,6 +3638,12 @@
       <c r="C127">
         <v>16800</v>
       </c>
+      <c r="D127">
+        <v>16623</v>
+      </c>
+      <c r="E127">
+        <v>16993</v>
+      </c>
       <c r="K127">
         <v>2</v>
       </c>
@@ -3606,10 +3651,10 @@
         <v>2.4209183673469301</v>
       </c>
       <c r="M127">
-        <v>2.94132653061224</v>
+        <v>2.4221938775510199</v>
       </c>
       <c r="N127">
-        <v>2.8832908163265301</v>
+        <v>2.39923469387755</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -3619,6 +3664,12 @@
       <c r="C128">
         <v>60016</v>
       </c>
+      <c r="D128">
+        <v>58993</v>
+      </c>
+      <c r="E128">
+        <v>62417</v>
+      </c>
       <c r="K128">
         <v>3</v>
       </c>
@@ -3626,19 +3677,25 @@
         <v>3.5702062074829901</v>
       </c>
       <c r="M128">
-        <v>4.3012861394557804</v>
+        <v>3.5750425170067999</v>
       </c>
       <c r="N128">
-        <v>4.1397746598639404</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14">
+        <v>3.5360863095238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="B129">
         <v>4</v>
       </c>
       <c r="C129">
         <v>150912</v>
       </c>
+      <c r="D129">
+        <v>145193</v>
+      </c>
+      <c r="E129">
+        <v>160236</v>
+      </c>
       <c r="K129">
         <v>4</v>
       </c>
@@ -3646,19 +3703,25 @@
         <v>4.6569387755102003</v>
       </c>
       <c r="M129">
-        <v>5.5444812925170002</v>
+        <v>4.6769982993197203</v>
       </c>
       <c r="N129">
-        <v>5.2545493197278903</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14">
+        <v>4.5824404761904702</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130">
         <v>270945</v>
       </c>
+      <c r="D130">
+        <v>260651</v>
+      </c>
+      <c r="E130">
+        <v>292425</v>
+      </c>
       <c r="K130">
         <v>5</v>
       </c>
@@ -3666,19 +3729,25 @@
         <v>5.6267113095237997</v>
       </c>
       <c r="M130">
-        <v>6.6140837585033996</v>
+        <v>5.6653858418367298</v>
       </c>
       <c r="N130">
-        <v>6.1976801658163199</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14">
+        <v>5.5004570578231204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131">
         <v>349140</v>
       </c>
+      <c r="D131">
+        <v>343000</v>
+      </c>
+      <c r="E131">
+        <v>373159</v>
+      </c>
       <c r="K131">
         <v>6</v>
       </c>
@@ -3686,19 +3755,25 @@
         <v>6.3809275793650704</v>
       </c>
       <c r="M131">
-        <v>7.41267361111111</v>
+        <v>6.4367293792517</v>
       </c>
       <c r="N131">
-        <v>6.9106859410430799</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14">
+        <v>6.2123511904761903</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="B132">
         <v>7</v>
       </c>
       <c r="C132">
         <v>313789</v>
       </c>
+      <c r="D132">
+        <v>321200</v>
+      </c>
+      <c r="E132">
+        <v>315822</v>
+      </c>
       <c r="K132">
         <v>7</v>
       </c>
@@ -3706,19 +3781,25 @@
         <v>6.7947916666666597</v>
       </c>
       <c r="M132">
-        <v>7.7519097222222202</v>
+        <v>6.8459387400793599</v>
       </c>
       <c r="N132">
-        <v>7.2730716765872998</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14">
+        <v>6.6134176587301496</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="B133">
         <v>8</v>
       </c>
       <c r="C133">
         <v>186781</v>
       </c>
+      <c r="D133">
+        <v>198785</v>
+      </c>
+      <c r="E133">
+        <v>162786</v>
+      </c>
       <c r="K133">
         <v>8</v>
       </c>
@@ -3726,45 +3807,69 @@
         <v>6.50838293650793</v>
       </c>
       <c r="M133">
-        <v>7.3079365079364997</v>
+        <v>6.5933283730158703</v>
       </c>
       <c r="N133">
-        <v>7.0051587301587297</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14">
+        <v>6.4412202380952301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="B134">
         <v>9</v>
       </c>
       <c r="C134">
         <v>71590</v>
       </c>
-    </row>
-    <row r="135" spans="2:14">
+      <c r="D134">
+        <v>75535</v>
+      </c>
+      <c r="E134">
+        <v>47090</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="B135">
         <v>10</v>
       </c>
       <c r="C135">
         <v>16144</v>
       </c>
-    </row>
-    <row r="136" spans="2:14">
+      <c r="D135">
+        <v>16412</v>
+      </c>
+      <c r="E135">
+        <v>6993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="B136">
         <v>11</v>
       </c>
       <c r="C136">
         <v>2190</v>
       </c>
-    </row>
-    <row r="137" spans="2:14">
+      <c r="D136">
+        <v>1944</v>
+      </c>
+      <c r="E136">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="B137">
         <v>12</v>
       </c>
       <c r="C137">
         <v>139</v>
       </c>
-    </row>
-    <row r="138" spans="2:14">
+      <c r="D137">
+        <v>113</v>
+      </c>
+      <c r="E137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="B138">
         <v>13</v>
       </c>
@@ -3772,9 +3877,353 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="1:14">
       <c r="C139">
         <v>6.09837424370322</v>
+      </c>
+      <c r="D139">
+        <v>6.14583670023978</v>
+      </c>
+      <c r="E139">
+        <v>5.9504137046560004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+      <c r="J143" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" t="s">
+        <v>12</v>
+      </c>
+      <c r="M143" t="s">
+        <v>3</v>
+      </c>
+      <c r="N143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>256</v>
+      </c>
+      <c r="D144">
+        <v>256</v>
+      </c>
+      <c r="E144">
+        <v>256</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14">
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>3024</v>
+      </c>
+      <c r="D145">
+        <v>3024</v>
+      </c>
+      <c r="E145">
+        <v>3024</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1.21875</v>
+      </c>
+      <c r="M145">
+        <v>1.21875</v>
+      </c>
+      <c r="N145">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14">
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>16800</v>
+      </c>
+      <c r="D146">
+        <v>16623</v>
+      </c>
+      <c r="E146">
+        <v>16860</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>2.4209183673469301</v>
+      </c>
+      <c r="M146">
+        <v>2.4221938775510199</v>
+      </c>
+      <c r="N146">
+        <v>2.3928571428571401</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14">
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>60016</v>
+      </c>
+      <c r="D147">
+        <v>58993</v>
+      </c>
+      <c r="E147">
+        <v>62821</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>3.5702062074829901</v>
+      </c>
+      <c r="M147">
+        <v>3.5750425170067999</v>
+      </c>
+      <c r="N147">
+        <v>3.5230654761904701</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14">
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>150912</v>
+      </c>
+      <c r="D148">
+        <v>145193</v>
+      </c>
+      <c r="E148">
+        <v>161412</v>
+      </c>
+      <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>4.6569387755102003</v>
+      </c>
+      <c r="M148">
+        <v>4.6769982993197203</v>
+      </c>
+      <c r="N148">
+        <v>4.5846768707482903</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14">
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>270945</v>
+      </c>
+      <c r="D149">
+        <v>260651</v>
+      </c>
+      <c r="E149">
+        <v>292526</v>
+      </c>
+      <c r="K149">
+        <v>5</v>
+      </c>
+      <c r="L149">
+        <v>5.6267113095237997</v>
+      </c>
+      <c r="M149">
+        <v>5.6653858418367298</v>
+      </c>
+      <c r="N149">
+        <v>5.50952912414966</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14">
+      <c r="B150">
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>349140</v>
+      </c>
+      <c r="D150">
+        <v>343000</v>
+      </c>
+      <c r="E150">
+        <v>372754</v>
+      </c>
+      <c r="K150">
+        <v>6</v>
+      </c>
+      <c r="L150">
+        <v>6.3809275793650704</v>
+      </c>
+      <c r="M150">
+        <v>6.4367293792517</v>
+      </c>
+      <c r="N150">
+        <v>6.2133060515873</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14">
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>313789</v>
+      </c>
+      <c r="D151">
+        <v>321200</v>
+      </c>
+      <c r="E151">
+        <v>314676</v>
+      </c>
+      <c r="K151">
+        <v>7</v>
+      </c>
+      <c r="L151">
+        <v>6.7947916666666597</v>
+      </c>
+      <c r="M151">
+        <v>6.8459387400793599</v>
+      </c>
+      <c r="N151">
+        <v>6.5963138640872998</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14">
+      <c r="B152">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>186781</v>
+      </c>
+      <c r="D152">
+        <v>198785</v>
+      </c>
+      <c r="E152">
+        <v>161978</v>
+      </c>
+      <c r="K152">
+        <v>8</v>
+      </c>
+      <c r="L152">
+        <v>6.50838293650793</v>
+      </c>
+      <c r="M152">
+        <v>6.5933283730158703</v>
+      </c>
+      <c r="N152">
+        <v>6.4015873015873002</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14">
+      <c r="B153">
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>71590</v>
+      </c>
+      <c r="D153">
+        <v>75535</v>
+      </c>
+      <c r="E153">
+        <v>47652</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14">
+      <c r="B154">
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>16144</v>
+      </c>
+      <c r="D154">
+        <v>16412</v>
+      </c>
+      <c r="E154">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14">
+      <c r="B155">
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>2190</v>
+      </c>
+      <c r="D155">
+        <v>1944</v>
+      </c>
+      <c r="E155">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14">
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>139</v>
+      </c>
+      <c r="D156">
+        <v>113</v>
+      </c>
+      <c r="E156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14">
+      <c r="B157">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14">
+      <c r="C158">
+        <v>6.09837424370322</v>
+      </c>
+      <c r="D158">
+        <v>6.14583670023978</v>
+      </c>
+      <c r="E158">
+        <v>5.9482260535787201</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D17BD-EA72-40C1-87E2-E4719433B2C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F719D6D-3A73-4309-B868-58654DB9B8F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="2220" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="3930" yWindow="1860" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>vanillla</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>partial_with_permute</t>
+  </si>
+  <si>
+    <t>previous_paper</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3019,7 +3022,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:15">
       <c r="B97">
         <v>16</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:15">
       <c r="B98">
         <v>17</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:15">
       <c r="C99">
         <f>H100/SUM(C81:C98)</f>
         <v>7.0393229240724162</v>
@@ -3067,7 +3070,7 @@
         <v>6.6921807080248703</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:15">
       <c r="H100">
         <f>SUM(H81:H98)</f>
         <v>10148796</v>
@@ -3077,7 +3080,7 @@
         <v>10233712</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3093,6 +3096,9 @@
       <c r="E103" t="s">
         <v>4</v>
       </c>
+      <c r="F103" t="s">
+        <v>16</v>
+      </c>
       <c r="J103" t="s">
         <v>11</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:15">
       <c r="B104">
         <v>0</v>
       </c>
@@ -3122,6 +3128,9 @@
       <c r="E104">
         <v>256</v>
       </c>
+      <c r="F104">
+        <v>40322</v>
+      </c>
       <c r="H104">
         <f>B104*C104</f>
         <v>0</v>
@@ -3138,8 +3147,11 @@
       <c r="N104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="B105">
         <v>1</v>
       </c>
@@ -3151,6 +3163,9 @@
       </c>
       <c r="E105">
         <v>2304</v>
+      </c>
+      <c r="F105">
+        <v>120972</v>
       </c>
       <c r="H105">
         <f t="shared" ref="H105:H121" si="21">B105*C105</f>
@@ -3168,8 +3183,11 @@
       <c r="N105">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105">
+        <v>11.625</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="B106">
         <v>2</v>
       </c>
@@ -3181,6 +3199,9 @@
       </c>
       <c r="E106">
         <v>11904</v>
+      </c>
+      <c r="F106">
+        <v>121049</v>
       </c>
       <c r="H106">
         <f t="shared" si="21"/>
@@ -3198,8 +3219,11 @@
       <c r="N106">
         <v>2.8832908163265301</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106">
+        <v>11.1785714286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="B107">
         <v>3</v>
       </c>
@@ -3211,6 +3235,9 @@
       </c>
       <c r="E107">
         <v>42184</v>
+      </c>
+      <c r="F107">
+        <v>60932</v>
       </c>
       <c r="H107">
         <f t="shared" si="21"/>
@@ -3228,8 +3255,11 @@
       <c r="N107">
         <v>4.1397746598639404</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107">
+        <v>10.5714285714</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="B108">
         <v>4</v>
       </c>
@@ -3241,6 +3271,9 @@
       </c>
       <c r="E108">
         <v>108505</v>
+      </c>
+      <c r="F108">
+        <v>41915</v>
       </c>
       <c r="H108">
         <f t="shared" si="21"/>
@@ -3258,8 +3291,11 @@
       <c r="N108">
         <v>5.2545493197278903</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108">
+        <v>9.8285714285699992</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="B109">
         <v>5</v>
       </c>
@@ -3271,6 +3307,9 @@
       </c>
       <c r="E109">
         <v>209600</v>
+      </c>
+      <c r="F109">
+        <v>71186</v>
       </c>
       <c r="H109">
         <f t="shared" si="21"/>
@@ -3288,8 +3327,11 @@
       <c r="N109">
         <v>6.1976801658163199</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109">
+        <v>8.7678571428600005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="B110">
         <v>6</v>
       </c>
@@ -3301,6 +3343,9 @@
       </c>
       <c r="E110">
         <v>300439</v>
+      </c>
+      <c r="F110">
+        <v>141357</v>
       </c>
       <c r="H110">
         <f t="shared" si="21"/>
@@ -3318,8 +3363,11 @@
       <c r="N110">
         <v>6.9106859410430799</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="B111">
         <v>7</v>
       </c>
@@ -3331,6 +3379,9 @@
       </c>
       <c r="E111">
         <v>316812</v>
+      </c>
+      <c r="F111">
+        <v>238974</v>
       </c>
       <c r="H111">
         <f t="shared" si="21"/>
@@ -3348,8 +3399,11 @@
       <c r="N111">
         <v>7.2730716765872998</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="B112">
         <v>8</v>
       </c>
@@ -3361,6 +3415,9 @@
       </c>
       <c r="E112">
         <v>240858</v>
+      </c>
+      <c r="F112">
+        <v>174980</v>
       </c>
       <c r="H112">
         <f t="shared" si="21"/>
@@ -3378,6 +3435,9 @@
       <c r="N112">
         <v>7.0051587301587297</v>
       </c>
+      <c r="O112">
+        <v>7.3726346072800002</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="B113">
@@ -3392,6 +3452,9 @@
       <c r="E113">
         <v>133759</v>
       </c>
+      <c r="F113">
+        <v>122965</v>
+      </c>
       <c r="H113">
         <f t="shared" si="21"/>
         <v>1579383</v>
@@ -3410,6 +3473,9 @@
       <c r="E114">
         <v>54643</v>
       </c>
+      <c r="F114">
+        <v>147190</v>
+      </c>
       <c r="H114">
         <f t="shared" si="21"/>
         <v>1018050</v>
@@ -3428,6 +3494,9 @@
       <c r="E115">
         <v>16276</v>
       </c>
+      <c r="F115">
+        <v>98429</v>
+      </c>
       <c r="H115">
         <f t="shared" si="21"/>
         <v>527076</v>
@@ -3446,6 +3515,9 @@
       <c r="E116">
         <v>3531</v>
       </c>
+      <c r="F116">
+        <v>45547</v>
+      </c>
       <c r="H116">
         <f t="shared" si="21"/>
         <v>219984</v>
@@ -3464,6 +3536,9 @@
       <c r="E117">
         <v>597</v>
       </c>
+      <c r="F117">
+        <v>15869</v>
+      </c>
       <c r="H117">
         <f t="shared" si="21"/>
         <v>72553</v>
@@ -3482,6 +3557,9 @@
       <c r="E118">
         <v>60</v>
       </c>
+      <c r="F118">
+        <v>38</v>
+      </c>
       <c r="H118">
         <f t="shared" si="21"/>
         <v>18508</v>
@@ -3499,6 +3577,9 @@
       </c>
       <c r="E119">
         <v>1</v>
+      </c>
+      <c r="F119">
+        <v>5</v>
       </c>
       <c r="H119">
         <f t="shared" si="21"/>
@@ -3543,6 +3624,9 @@
       <c r="E122">
         <v>6.6324191300861601</v>
       </c>
+      <c r="F122">
+        <v>6.5234322654000003</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="H123">
@@ -3974,7 +4058,7 @@
         <v>2</v>
       </c>
       <c r="C146">
-        <v>16800</v>
+        <v>16652</v>
       </c>
       <c r="D146">
         <v>16623</v>
@@ -3986,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="L146">
-        <v>2.4209183673469301</v>
+        <v>2.4036989795918302</v>
       </c>
       <c r="M146">
         <v>2.4221938775510199</v>
@@ -4000,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>60016</v>
+        <v>60449</v>
       </c>
       <c r="D147">
         <v>58993</v>
@@ -4012,7 +4096,7 @@
         <v>3</v>
       </c>
       <c r="L147">
-        <v>3.5702062074829901</v>
+        <v>3.5634566326530601</v>
       </c>
       <c r="M147">
         <v>3.5750425170067999</v>
@@ -4026,7 +4110,7 @@
         <v>4</v>
       </c>
       <c r="C148">
-        <v>150912</v>
+        <v>149695</v>
       </c>
       <c r="D148">
         <v>145193</v>
@@ -4038,7 +4122,7 @@
         <v>4</v>
       </c>
       <c r="L148">
-        <v>4.6569387755102003</v>
+        <v>4.6806717687074801</v>
       </c>
       <c r="M148">
         <v>4.6769982993197203</v>
@@ -4052,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="C149">
-        <v>270945</v>
+        <v>261768</v>
       </c>
       <c r="D149">
         <v>260651</v>
@@ -4064,7 +4148,7 @@
         <v>5</v>
       </c>
       <c r="L149">
-        <v>5.6267113095237997</v>
+        <v>5.6880234906462501</v>
       </c>
       <c r="M149">
         <v>5.6653858418367298</v>
@@ -4078,7 +4162,7 @@
         <v>6</v>
       </c>
       <c r="C150">
-        <v>349140</v>
+        <v>332382</v>
       </c>
       <c r="D150">
         <v>343000</v>
@@ -4090,7 +4174,7 @@
         <v>6</v>
       </c>
       <c r="L150">
-        <v>6.3809275793650704</v>
+        <v>6.4833049886621303</v>
       </c>
       <c r="M150">
         <v>6.4367293792517</v>
@@ -4104,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="C151">
-        <v>313789</v>
+        <v>303554</v>
       </c>
       <c r="D151">
         <v>321200</v>
@@ -4116,7 +4200,7 @@
         <v>7</v>
       </c>
       <c r="L151">
-        <v>6.7947916666666597</v>
+        <v>6.9060887896825296</v>
       </c>
       <c r="M151">
         <v>6.8459387400793599</v>
@@ -4130,7 +4214,7 @@
         <v>8</v>
       </c>
       <c r="C152">
-        <v>186781</v>
+        <v>194929</v>
       </c>
       <c r="D152">
         <v>198785</v>
@@ -4142,7 +4226,7 @@
         <v>8</v>
       </c>
       <c r="L152">
-        <v>6.50838293650793</v>
+        <v>6.56825396825396</v>
       </c>
       <c r="M152">
         <v>6.5933283730158703</v>
@@ -4156,7 +4240,7 @@
         <v>9</v>
       </c>
       <c r="C153">
-        <v>71590</v>
+        <v>86878</v>
       </c>
       <c r="D153">
         <v>75535</v>
@@ -4170,7 +4254,7 @@
         <v>10</v>
       </c>
       <c r="C154">
-        <v>16144</v>
+        <v>26135</v>
       </c>
       <c r="D154">
         <v>16412</v>
@@ -4184,7 +4268,7 @@
         <v>11</v>
       </c>
       <c r="C155">
-        <v>2190</v>
+        <v>5273</v>
       </c>
       <c r="D155">
         <v>1944</v>
@@ -4198,7 +4282,7 @@
         <v>12</v>
       </c>
       <c r="C156">
-        <v>139</v>
+        <v>677</v>
       </c>
       <c r="D156">
         <v>113</v>
@@ -4212,12 +4296,12 @@
         <v>13</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="158" spans="2:14">
       <c r="C158">
-        <v>6.09837424370322</v>
+        <v>6.1828658506557002</v>
       </c>
       <c r="D158">
         <v>6.14583670023978</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F719D6D-3A73-4309-B868-58654DB9B8F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284E298-ABC5-415F-815F-D67A7735F1B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1860" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="6435" yWindow="4665" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>vanillla</t>
   </si>
@@ -86,7 +86,10 @@
     <t>partial_with_permute</t>
   </si>
   <si>
-    <t>previous_paper</t>
+    <t>GBD</t>
+  </si>
+  <si>
+    <t>GBDL</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:O158"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="P103" sqref="P103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3022,7 +3025,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:16">
       <c r="B97">
         <v>16</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:16">
       <c r="B98">
         <v>17</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:16">
       <c r="C99">
         <f>H100/SUM(C81:C98)</f>
         <v>7.0393229240724162</v>
@@ -3070,7 +3073,7 @@
         <v>6.6921807080248703</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:16">
       <c r="H100">
         <f>SUM(H81:H98)</f>
         <v>10148796</v>
@@ -3080,7 +3083,7 @@
         <v>10233712</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:16">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3099,6 +3102,9 @@
       <c r="F103" t="s">
         <v>16</v>
       </c>
+      <c r="G103" t="s">
+        <v>17</v>
+      </c>
       <c r="J103" t="s">
         <v>11</v>
       </c>
@@ -3114,8 +3120,14 @@
       <c r="N103" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="O103" t="s">
+        <v>16</v>
+      </c>
+      <c r="P103" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="B104">
         <v>0</v>
       </c>
@@ -3129,7 +3141,10 @@
         <v>256</v>
       </c>
       <c r="F104">
-        <v>40322</v>
+        <v>256</v>
+      </c>
+      <c r="G104">
+        <v>256</v>
       </c>
       <c r="H104">
         <f>B104*C104</f>
@@ -3148,10 +3163,13 @@
         <v>0</v>
       </c>
       <c r="O104">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="B105">
         <v>1</v>
       </c>
@@ -3165,7 +3183,10 @@
         <v>2304</v>
       </c>
       <c r="F105">
-        <v>120972</v>
+        <v>2304</v>
+      </c>
+      <c r="G105">
+        <v>2304</v>
       </c>
       <c r="H105">
         <f t="shared" ref="H105:H121" si="21">B105*C105</f>
@@ -3184,10 +3205,13 @@
         <v>1.5</v>
       </c>
       <c r="O105">
-        <v>11.625</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>1.5</v>
+      </c>
+      <c r="P105">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="B106">
         <v>2</v>
       </c>
@@ -3201,7 +3225,10 @@
         <v>11904</v>
       </c>
       <c r="F106">
-        <v>121049</v>
+        <v>11664</v>
+      </c>
+      <c r="G106">
+        <v>11000</v>
       </c>
       <c r="H106">
         <f t="shared" si="21"/>
@@ -3220,10 +3247,13 @@
         <v>2.8832908163265301</v>
       </c>
       <c r="O106">
-        <v>11.1785714286</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>2.9394132653099998</v>
+      </c>
+      <c r="P106">
+        <v>2.9292091836699998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="B107">
         <v>3</v>
       </c>
@@ -3237,7 +3267,10 @@
         <v>42184</v>
       </c>
       <c r="F107">
-        <v>60932</v>
+        <v>39424</v>
+      </c>
+      <c r="G107">
+        <v>35033</v>
       </c>
       <c r="H107">
         <f t="shared" si="21"/>
@@ -3256,10 +3289,13 @@
         <v>4.1397746598639404</v>
       </c>
       <c r="O107">
-        <v>10.5714285714</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>4.2934736394600002</v>
+      </c>
+      <c r="P107">
+        <v>4.2776892006800002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="B108">
         <v>4</v>
       </c>
@@ -3273,7 +3309,10 @@
         <v>108505</v>
       </c>
       <c r="F108">
-        <v>41915</v>
+        <v>95486</v>
+      </c>
+      <c r="G108">
+        <v>82247</v>
       </c>
       <c r="H108">
         <f t="shared" si="21"/>
@@ -3292,10 +3331,13 @@
         <v>5.2545493197278903</v>
       </c>
       <c r="O108">
-        <v>9.8285714285699992</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>5.5263095238100002</v>
+      </c>
+      <c r="P108">
+        <v>5.53102891156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="B109">
         <v>5</v>
       </c>
@@ -3309,7 +3351,10 @@
         <v>209600</v>
       </c>
       <c r="F109">
-        <v>71186</v>
+        <v>174699</v>
+      </c>
+      <c r="G109">
+        <v>151127</v>
       </c>
       <c r="H109">
         <f t="shared" si="21"/>
@@ -3328,10 +3373,13 @@
         <v>6.1976801658163199</v>
       </c>
       <c r="O109">
-        <v>8.7678571428600005</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>6.5861341411599996</v>
+      </c>
+      <c r="P109">
+        <v>6.6628348214299997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="B110">
         <v>6</v>
       </c>
@@ -3345,7 +3393,10 @@
         <v>300439</v>
       </c>
       <c r="F110">
-        <v>141357</v>
+        <v>247412</v>
+      </c>
+      <c r="G110">
+        <v>222157</v>
       </c>
       <c r="H110">
         <f t="shared" si="21"/>
@@ -3364,10 +3415,13 @@
         <v>6.9106859410430799</v>
       </c>
       <c r="O110">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>7.3933815192700001</v>
+      </c>
+      <c r="P110">
+        <v>7.6218714569200001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="B111">
         <v>7</v>
       </c>
@@ -3381,7 +3435,10 @@
         <v>316812</v>
       </c>
       <c r="F111">
-        <v>238974</v>
+        <v>275659</v>
+      </c>
+      <c r="G111">
+        <v>264336</v>
       </c>
       <c r="H111">
         <f t="shared" si="21"/>
@@ -3400,10 +3457,13 @@
         <v>7.2730716765872998</v>
       </c>
       <c r="O111">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>7.8025886656700001</v>
+      </c>
+      <c r="P111">
+        <v>8.2963448660699992</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="B112">
         <v>8</v>
       </c>
@@ -3417,7 +3477,10 @@
         <v>240858</v>
       </c>
       <c r="F112">
-        <v>174980</v>
+        <v>245010</v>
+      </c>
+      <c r="G112">
+        <v>254841</v>
       </c>
       <c r="H112">
         <f t="shared" si="21"/>
@@ -3436,7 +3499,10 @@
         <v>7.0051587301587297</v>
       </c>
       <c r="O112">
-        <v>7.3726346072800002</v>
+        <v>7.3728174603200003</v>
+      </c>
+      <c r="P112">
+        <v>8.3424603174600005</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -3453,7 +3519,10 @@
         <v>133759</v>
       </c>
       <c r="F113">
-        <v>122965</v>
+        <v>175578</v>
+      </c>
+      <c r="G113">
+        <v>199013</v>
       </c>
       <c r="H113">
         <f t="shared" si="21"/>
@@ -3474,7 +3543,10 @@
         <v>54643</v>
       </c>
       <c r="F114">
-        <v>147190</v>
+        <v>101814</v>
+      </c>
+      <c r="G114">
+        <v>124911</v>
       </c>
       <c r="H114">
         <f t="shared" si="21"/>
@@ -3495,7 +3567,10 @@
         <v>16276</v>
       </c>
       <c r="F115">
-        <v>98429</v>
+        <v>47772</v>
+      </c>
+      <c r="G115">
+        <v>62275</v>
       </c>
       <c r="H115">
         <f t="shared" si="21"/>
@@ -3516,7 +3591,10 @@
         <v>3531</v>
       </c>
       <c r="F116">
-        <v>45547</v>
+        <v>18004</v>
+      </c>
+      <c r="G116">
+        <v>23997</v>
       </c>
       <c r="H116">
         <f t="shared" si="21"/>
@@ -3537,7 +3615,10 @@
         <v>597</v>
       </c>
       <c r="F117">
-        <v>15869</v>
+        <v>5295</v>
+      </c>
+      <c r="G117">
+        <v>6830</v>
       </c>
       <c r="H117">
         <f t="shared" si="21"/>
@@ -3558,7 +3639,10 @@
         <v>60</v>
       </c>
       <c r="F118">
-        <v>38</v>
+        <v>1161</v>
+      </c>
+      <c r="G118">
+        <v>1273</v>
       </c>
       <c r="H118">
         <f t="shared" si="21"/>
@@ -3579,7 +3663,10 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="G119">
+        <v>124</v>
       </c>
       <c r="H119">
         <f t="shared" si="21"/>
@@ -3596,6 +3683,12 @@
       <c r="D120">
         <v>9</v>
       </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
       <c r="H120">
         <f t="shared" si="21"/>
         <v>480</v>
@@ -3607,6 +3700,9 @@
       </c>
       <c r="C121">
         <v>2</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
       </c>
       <c r="H121">
         <f t="shared" si="21"/>
@@ -3625,7 +3721,10 @@
         <v>6.6324191300861601</v>
       </c>
       <c r="F122">
-        <v>6.5234322654000003</v>
+        <v>7.0757888618500004</v>
+      </c>
+      <c r="G122">
+        <v>7.3230239524899998</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -4061,7 +4160,7 @@
         <v>16652</v>
       </c>
       <c r="D146">
-        <v>16623</v>
+        <v>16524</v>
       </c>
       <c r="E146">
         <v>16860</v>
@@ -4073,7 +4172,7 @@
         <v>2.4036989795918302</v>
       </c>
       <c r="M146">
-        <v>2.4221938775510199</v>
+        <v>2.40561224489795</v>
       </c>
       <c r="N146">
         <v>2.3928571428571401</v>
@@ -4087,7 +4186,7 @@
         <v>60449</v>
       </c>
       <c r="D147">
-        <v>58993</v>
+        <v>59427</v>
       </c>
       <c r="E147">
         <v>62821</v>
@@ -4099,7 +4198,7 @@
         <v>3.5634566326530601</v>
       </c>
       <c r="M147">
-        <v>3.5750425170067999</v>
+        <v>3.5701530612244898</v>
       </c>
       <c r="N147">
         <v>3.5230654761904701</v>
@@ -4113,7 +4212,7 @@
         <v>149695</v>
       </c>
       <c r="D148">
-        <v>145193</v>
+        <v>146444</v>
       </c>
       <c r="E148">
         <v>161412</v>
@@ -4125,7 +4224,7 @@
         <v>4.6806717687074801</v>
       </c>
       <c r="M148">
-        <v>4.6769982993197203</v>
+        <v>4.6924744897959103</v>
       </c>
       <c r="N148">
         <v>4.5846768707482903</v>
@@ -4139,7 +4238,7 @@
         <v>261768</v>
       </c>
       <c r="D149">
-        <v>260651</v>
+        <v>258506</v>
       </c>
       <c r="E149">
         <v>292526</v>
@@ -4151,7 +4250,7 @@
         <v>5.6880234906462501</v>
       </c>
       <c r="M149">
-        <v>5.6653858418367298</v>
+        <v>5.6965614370748296</v>
       </c>
       <c r="N149">
         <v>5.50952912414966</v>
@@ -4165,7 +4264,7 @@
         <v>332382</v>
       </c>
       <c r="D150">
-        <v>343000</v>
+        <v>336738</v>
       </c>
       <c r="E150">
         <v>372754</v>
@@ -4177,7 +4276,7 @@
         <v>6.4833049886621303</v>
       </c>
       <c r="M150">
-        <v>6.4367293792517</v>
+        <v>6.4703585600907001</v>
       </c>
       <c r="N150">
         <v>6.2133060515873</v>
@@ -4191,7 +4290,7 @@
         <v>303554</v>
       </c>
       <c r="D151">
-        <v>321200</v>
+        <v>315262</v>
       </c>
       <c r="E151">
         <v>314676</v>
@@ -4203,7 +4302,7 @@
         <v>6.9060887896825296</v>
       </c>
       <c r="M151">
-        <v>6.8459387400793599</v>
+        <v>6.8615172371031701</v>
       </c>
       <c r="N151">
         <v>6.5963138640872998</v>
@@ -4217,7 +4316,7 @@
         <v>194929</v>
       </c>
       <c r="D152">
-        <v>198785</v>
+        <v>199720</v>
       </c>
       <c r="E152">
         <v>161978</v>
@@ -4229,7 +4328,7 @@
         <v>6.56825396825396</v>
       </c>
       <c r="M152">
-        <v>6.5933283730158703</v>
+        <v>6.5692460317460304</v>
       </c>
       <c r="N152">
         <v>6.4015873015873002</v>
@@ -4243,7 +4342,7 @@
         <v>86878</v>
       </c>
       <c r="D153">
-        <v>75535</v>
+        <v>82363</v>
       </c>
       <c r="E153">
         <v>47652</v>
@@ -4257,7 +4356,7 @@
         <v>26135</v>
       </c>
       <c r="D154">
-        <v>16412</v>
+        <v>20233</v>
       </c>
       <c r="E154">
         <v>7182</v>
@@ -4271,7 +4370,7 @@
         <v>5273</v>
       </c>
       <c r="D155">
-        <v>1944</v>
+        <v>2967</v>
       </c>
       <c r="E155">
         <v>579</v>
@@ -4285,7 +4384,7 @@
         <v>677</v>
       </c>
       <c r="D156">
-        <v>113</v>
+        <v>258</v>
       </c>
       <c r="E156">
         <v>9</v>
@@ -4298,13 +4397,16 @@
       <c r="C157">
         <v>57</v>
       </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
     </row>
     <row r="158" spans="2:14">
       <c r="C158">
         <v>6.1828658506557002</v>
       </c>
       <c r="D158">
-        <v>6.14583670023978</v>
+        <v>6.1711334099542903</v>
       </c>
       <c r="E158">
         <v>5.9482260535787201</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284E298-ABC5-415F-815F-D67A7735F1B3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F328AC70-90CF-4EF6-BFFF-04ED9462AE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="4665" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="6435" yWindow="4215" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
   <si>
     <t>vanillla</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>GBDL</t>
+  </si>
+  <si>
+    <t>qGBD</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="P103" sqref="P103"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="L162" sqref="L162:L170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4412,6 +4415,215 @@
         <v>5.9482260535787201</v>
       </c>
     </row>
+    <row r="161" spans="2:12">
+      <c r="C161" t="s">
+        <v>18</v>
+      </c>
+      <c r="J161" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12">
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>256</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12">
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>2304</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12">
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>11280</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>2.94132653061</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12">
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>37600</v>
+      </c>
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165">
+        <v>4.2864051870699997</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12">
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>92426</v>
+      </c>
+      <c r="K166">
+        <v>4</v>
+      </c>
+      <c r="L166">
+        <v>5.5032142857100004</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12">
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>173340</v>
+      </c>
+      <c r="K167">
+        <v>5</v>
+      </c>
+      <c r="L167">
+        <v>6.5498272746600001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12">
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168">
+        <v>251572</v>
+      </c>
+      <c r="K168">
+        <v>6</v>
+      </c>
+      <c r="L168">
+        <v>7.3546166383199996</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12">
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>285452</v>
+      </c>
+      <c r="K169">
+        <v>7</v>
+      </c>
+      <c r="L169">
+        <v>7.7909753224199996</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12">
+      <c r="B170">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>253317</v>
+      </c>
+      <c r="K170">
+        <v>8</v>
+      </c>
+      <c r="L170">
+        <v>7.3915922618999996</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12">
+      <c r="B171">
+        <v>9</v>
+      </c>
+      <c r="C171">
+        <v>176097</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12">
+      <c r="B172">
+        <v>10</v>
+      </c>
+      <c r="C172">
+        <v>96769</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12">
+      <c r="B173">
+        <v>11</v>
+      </c>
+      <c r="C173">
+        <v>42194</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12">
+      <c r="B174">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>14470</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12">
+      <c r="B175">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12">
+      <c r="B176">
+        <v>14</v>
+      </c>
+      <c r="C176">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177">
+        <v>15</v>
+      </c>
+      <c r="C177">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178">
+        <v>16</v>
+      </c>
+      <c r="C178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="C180">
+        <v>7.0470872126500002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F328AC70-90CF-4EF6-BFFF-04ED9462AE83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27E2BAD-A5C7-4E95-8B81-4B5B059B7D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="4215" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="900" yWindow="2265" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>vanillla</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>qGBD</t>
+  </si>
+  <si>
+    <t>qGDBL</t>
   </si>
 </sst>
 </file>
@@ -453,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="L162" sqref="L162:L170"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="K161" sqref="K161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3231,7 +3234,7 @@
         <v>11664</v>
       </c>
       <c r="G106">
-        <v>11000</v>
+        <v>11208</v>
       </c>
       <c r="H106">
         <f t="shared" si="21"/>
@@ -3253,7 +3256,7 @@
         <v>2.9394132653099998</v>
       </c>
       <c r="P106">
-        <v>2.9292091836699998</v>
+        <v>2.9119897959199998</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -3273,7 +3276,7 @@
         <v>39424</v>
       </c>
       <c r="G107">
-        <v>35033</v>
+        <v>36249</v>
       </c>
       <c r="H107">
         <f t="shared" si="21"/>
@@ -3295,7 +3298,7 @@
         <v>4.2934736394600002</v>
       </c>
       <c r="P107">
-        <v>4.2776892006800002</v>
+        <v>4.2353316326500003</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -3315,7 +3318,7 @@
         <v>95486</v>
       </c>
       <c r="G108">
-        <v>82247</v>
+        <v>86065</v>
       </c>
       <c r="H108">
         <f t="shared" si="21"/>
@@ -3337,7 +3340,7 @@
         <v>5.5263095238100002</v>
       </c>
       <c r="P108">
-        <v>5.53102891156</v>
+        <v>5.4641411564600002</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -3357,7 +3360,7 @@
         <v>174699</v>
       </c>
       <c r="G109">
-        <v>151127</v>
+        <v>158099</v>
       </c>
       <c r="H109">
         <f t="shared" si="21"/>
@@ -3379,7 +3382,7 @@
         <v>6.5861341411599996</v>
       </c>
       <c r="P109">
-        <v>6.6628348214299997</v>
+        <v>6.5762728528899999</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -3399,7 +3402,7 @@
         <v>247412</v>
       </c>
       <c r="G110">
-        <v>222157</v>
+        <v>230359</v>
       </c>
       <c r="H110">
         <f t="shared" si="21"/>
@@ -3421,7 +3424,7 @@
         <v>7.3933815192700001</v>
       </c>
       <c r="P110">
-        <v>7.6218714569200001</v>
+        <v>7.5303252551000002</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -3441,7 +3444,7 @@
         <v>275659</v>
       </c>
       <c r="G111">
-        <v>264336</v>
+        <v>269588</v>
       </c>
       <c r="H111">
         <f t="shared" si="21"/>
@@ -3463,7 +3466,7 @@
         <v>7.8025886656700001</v>
       </c>
       <c r="P111">
-        <v>8.2963448660699992</v>
+        <v>8.2145895337300008</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -3483,7 +3486,7 @@
         <v>245010</v>
       </c>
       <c r="G112">
-        <v>254841</v>
+        <v>254035</v>
       </c>
       <c r="H112">
         <f t="shared" si="21"/>
@@ -3505,7 +3508,7 @@
         <v>7.3728174603200003</v>
       </c>
       <c r="P112">
-        <v>8.3424603174600005</v>
+        <v>8.2946428571399995</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -3525,7 +3528,7 @@
         <v>175578</v>
       </c>
       <c r="G113">
-        <v>199013</v>
+        <v>192077</v>
       </c>
       <c r="H113">
         <f t="shared" si="21"/>
@@ -3549,7 +3552,7 @@
         <v>101814</v>
       </c>
       <c r="G114">
-        <v>124911</v>
+        <v>116372</v>
       </c>
       <c r="H114">
         <f t="shared" si="21"/>
@@ -3573,7 +3576,7 @@
         <v>47772</v>
       </c>
       <c r="G115">
-        <v>62275</v>
+        <v>56217</v>
       </c>
       <c r="H115">
         <f t="shared" si="21"/>
@@ -3597,7 +3600,7 @@
         <v>18004</v>
       </c>
       <c r="G116">
-        <v>23997</v>
+        <v>21320</v>
       </c>
       <c r="H116">
         <f t="shared" si="21"/>
@@ -3621,7 +3624,7 @@
         <v>5295</v>
       </c>
       <c r="G117">
-        <v>6830</v>
+        <v>6144</v>
       </c>
       <c r="H117">
         <f t="shared" si="21"/>
@@ -3645,7 +3648,7 @@
         <v>1161</v>
       </c>
       <c r="G118">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="H118">
         <f t="shared" si="21"/>
@@ -3669,7 +3672,7 @@
         <v>168</v>
       </c>
       <c r="G119">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="H119">
         <f t="shared" si="21"/>
@@ -3690,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="G120">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H120">
         <f t="shared" si="21"/>
@@ -3727,7 +3730,7 @@
         <v>7.0757888618500004</v>
       </c>
       <c r="G122">
-        <v>7.3230239524899998</v>
+        <v>7.2389304786100004</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -4418,6 +4421,9 @@
     <row r="161" spans="2:12">
       <c r="C161" t="s">
         <v>18</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
       </c>
       <c r="J161" t="s">
         <v>11</v>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27E2BAD-A5C7-4E95-8B81-4B5B059B7D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776661A-5339-4705-8B02-DAEDF8F06EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="2265" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776661A-5339-4705-8B02-DAEDF8F06EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0539549C-2F25-4AFA-8A7D-4CFC3BD4FB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2265" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="0" yWindow="1035" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
   <si>
     <t>vanillla</t>
   </si>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="K161" sqref="K161"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="M162" sqref="M162:M170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -4418,7 +4418,7 @@
         <v>5.9482260535787201</v>
       </c>
     </row>
-    <row r="161" spans="2:12">
+    <row r="161" spans="2:13">
       <c r="C161" t="s">
         <v>18</v>
       </c>
@@ -4432,202 +4432,286 @@
         <v>10</v>
       </c>
       <c r="L161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="2:12">
+        <v>18</v>
+      </c>
+      <c r="M161" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13">
       <c r="B162">
         <v>0</v>
       </c>
       <c r="C162">
         <v>256</v>
       </c>
+      <c r="D162">
+        <v>256</v>
+      </c>
       <c r="K162">
         <v>0</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="2:12">
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13">
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163">
         <v>2304</v>
       </c>
+      <c r="D163">
+        <v>2304</v>
+      </c>
       <c r="K163">
         <v>1</v>
       </c>
       <c r="L163">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="164" spans="2:12">
+      <c r="M163">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13">
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164">
         <v>11280</v>
       </c>
+      <c r="D164">
+        <v>11184</v>
+      </c>
       <c r="K164">
         <v>2</v>
       </c>
       <c r="L164">
         <v>2.94132653061</v>
       </c>
-    </row>
-    <row r="165" spans="2:12">
+      <c r="M164">
+        <v>2.8985969387799999</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13">
       <c r="B165">
         <v>3</v>
       </c>
       <c r="C165">
         <v>37600</v>
       </c>
+      <c r="D165">
+        <v>36509</v>
+      </c>
       <c r="K165">
         <v>3</v>
       </c>
       <c r="L165">
         <v>4.2864051870699997</v>
       </c>
-    </row>
-    <row r="166" spans="2:12">
+      <c r="M165">
+        <v>4.2145514455799997</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13">
       <c r="B166">
         <v>4</v>
       </c>
       <c r="C166">
         <v>92426</v>
       </c>
+      <c r="D166">
+        <v>87328</v>
+      </c>
       <c r="K166">
         <v>4</v>
       </c>
       <c r="L166">
         <v>5.5032142857100004</v>
       </c>
-    </row>
-    <row r="167" spans="2:12">
+      <c r="M166">
+        <v>5.4338180272100001</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13">
       <c r="B167">
         <v>5</v>
       </c>
       <c r="C167">
         <v>173340</v>
       </c>
+      <c r="D167">
+        <v>161596</v>
+      </c>
       <c r="K167">
         <v>5</v>
       </c>
       <c r="L167">
         <v>6.5498272746600001</v>
       </c>
-    </row>
-    <row r="168" spans="2:12">
+      <c r="M167">
+        <v>6.5315635629299997</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13">
       <c r="B168">
         <v>6</v>
       </c>
       <c r="C168">
         <v>251572</v>
       </c>
+      <c r="D168">
+        <v>236194</v>
+      </c>
       <c r="K168">
         <v>6</v>
       </c>
       <c r="L168">
         <v>7.3546166383199996</v>
       </c>
-    </row>
-    <row r="169" spans="2:12">
+      <c r="M168">
+        <v>7.4709183673500004</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13">
       <c r="B169">
         <v>7</v>
       </c>
       <c r="C169">
         <v>285452</v>
       </c>
+      <c r="D169">
+        <v>275059</v>
+      </c>
       <c r="K169">
         <v>7</v>
       </c>
       <c r="L169">
         <v>7.7909753224199996</v>
       </c>
-    </row>
-    <row r="170" spans="2:12">
+      <c r="M169">
+        <v>8.1377511160699996</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13">
       <c r="B170">
         <v>8</v>
       </c>
       <c r="C170">
         <v>253317</v>
       </c>
+      <c r="D170">
+        <v>255808</v>
+      </c>
       <c r="K170">
         <v>8</v>
       </c>
       <c r="L170">
         <v>7.3915922618999996</v>
       </c>
-    </row>
-    <row r="171" spans="2:12">
+      <c r="M170">
+        <v>8.1628968254000007</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13">
       <c r="B171">
         <v>9</v>
       </c>
       <c r="C171">
         <v>176097</v>
       </c>
-    </row>
-    <row r="172" spans="2:12">
+      <c r="D171">
+        <v>189408</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13">
       <c r="B172">
         <v>10</v>
       </c>
       <c r="C172">
         <v>96769</v>
       </c>
-    </row>
-    <row r="173" spans="2:12">
+      <c r="D172">
+        <v>111077</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13">
       <c r="B173">
         <v>11</v>
       </c>
       <c r="C173">
         <v>42194</v>
       </c>
-    </row>
-    <row r="174" spans="2:12">
+      <c r="D173">
+        <v>51026</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13">
       <c r="B174">
         <v>12</v>
       </c>
       <c r="C174">
         <v>14470</v>
       </c>
-    </row>
-    <row r="175" spans="2:12">
+      <c r="D174">
+        <v>18077</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13">
       <c r="B175">
         <v>13</v>
       </c>
       <c r="C175">
         <v>3790</v>
       </c>
-    </row>
-    <row r="176" spans="2:12">
+      <c r="D175">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13">
       <c r="B176">
         <v>14</v>
       </c>
       <c r="C176">
         <v>754</v>
       </c>
-    </row>
-    <row r="177" spans="2:3">
+      <c r="D176">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
       <c r="B177">
         <v>15</v>
       </c>
       <c r="C177">
         <v>101</v>
       </c>
-    </row>
-    <row r="178" spans="2:3">
+      <c r="D177">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
       <c r="B178">
         <v>16</v>
       </c>
       <c r="C178">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="2:3">
+      <c r="D178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
       <c r="C180">
         <v>7.0470872126500002</v>
+      </c>
+      <c r="D180">
+        <v>7.1803660743500002</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0539549C-2F25-4AFA-8A7D-4CFC3BD4FB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E0B382-8CED-4985-AC2A-1727B2A8662A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1035" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="4425" yWindow="1740" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
   <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="M162" sqref="M162:M170"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E0B382-8CED-4985-AC2A-1727B2A8662A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580445C-9D77-488B-809B-9BAFD31566A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="1740" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="855" yWindow="1515" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
   <si>
     <t>vanillla</t>
   </si>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:AD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="AD144" sqref="AD144:AD152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:30">
       <c r="B65">
         <v>1</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:30">
       <c r="B66">
         <v>2</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:30">
       <c r="B67">
         <v>3</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:30">
       <c r="B68">
         <v>4</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:30">
       <c r="B69">
         <v>5</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>29725</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:30">
       <c r="B70">
         <v>6</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>61014</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:30">
       <c r="B71">
         <v>7</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>78442</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:30">
       <c r="B72">
         <v>8</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>55552</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:30">
       <c r="B73">
         <v>9</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>20808</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:30">
       <c r="B74">
         <v>10</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>4930</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:30">
       <c r="B75">
         <v>11</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:30">
       <c r="B76">
         <v>12</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:30">
       <c r="C77">
         <f>H77/SUM(C64:C76)</f>
         <v>6.5267857142857144</v>
@@ -2539,7 +2539,7 @@
         <v>263160</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2570,8 +2570,32 @@
       <c r="N80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="2:14">
+      <c r="S80" t="s">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30">
       <c r="B81">
         <v>0</v>
       </c>
@@ -2604,8 +2628,32 @@
       <c r="N81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:14">
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>256</v>
+      </c>
+      <c r="T81">
+        <v>256</v>
+      </c>
+      <c r="U81">
+        <v>256</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:30">
       <c r="B82">
         <v>1</v>
       </c>
@@ -2638,8 +2686,32 @@
       <c r="N82">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="83" spans="2:14">
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82">
+        <v>3024</v>
+      </c>
+      <c r="T82">
+        <v>3024</v>
+      </c>
+      <c r="U82">
+        <v>3024</v>
+      </c>
+      <c r="AA82">
+        <v>1</v>
+      </c>
+      <c r="AB82">
+        <v>1.21875</v>
+      </c>
+      <c r="AC82">
+        <v>1.21875</v>
+      </c>
+      <c r="AD82">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30">
       <c r="B83">
         <v>2</v>
       </c>
@@ -2672,8 +2744,32 @@
       <c r="N83">
         <v>2.88010204081632</v>
       </c>
-    </row>
-    <row r="84" spans="2:14">
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>16800</v>
+      </c>
+      <c r="T83">
+        <v>16623</v>
+      </c>
+      <c r="U83">
+        <v>16993</v>
+      </c>
+      <c r="AA83">
+        <v>2</v>
+      </c>
+      <c r="AB83">
+        <v>2.4209183673469301</v>
+      </c>
+      <c r="AC83">
+        <v>2.4221938775510199</v>
+      </c>
+      <c r="AD83">
+        <v>2.39923469387755</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30">
       <c r="B84">
         <v>3</v>
       </c>
@@ -2706,8 +2802,32 @@
       <c r="N84">
         <v>4.1506696428571397</v>
       </c>
-    </row>
-    <row r="85" spans="2:14">
+      <c r="R84">
+        <v>3</v>
+      </c>
+      <c r="S84">
+        <v>60016</v>
+      </c>
+      <c r="T84">
+        <v>58993</v>
+      </c>
+      <c r="U84">
+        <v>62417</v>
+      </c>
+      <c r="AA84">
+        <v>3</v>
+      </c>
+      <c r="AB84">
+        <v>3.5702062074829901</v>
+      </c>
+      <c r="AC84">
+        <v>3.5750425170067999</v>
+      </c>
+      <c r="AD84">
+        <v>3.5360863095238</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30">
       <c r="B85">
         <v>4</v>
       </c>
@@ -2740,8 +2860,32 @@
       <c r="N85">
         <v>5.2740986394557803</v>
       </c>
-    </row>
-    <row r="86" spans="2:14">
+      <c r="R85">
+        <v>4</v>
+      </c>
+      <c r="S85">
+        <v>150912</v>
+      </c>
+      <c r="T85">
+        <v>145193</v>
+      </c>
+      <c r="U85">
+        <v>160236</v>
+      </c>
+      <c r="AA85">
+        <v>4</v>
+      </c>
+      <c r="AB85">
+        <v>4.6569387755102003</v>
+      </c>
+      <c r="AC85">
+        <v>4.6769982993197203</v>
+      </c>
+      <c r="AD85">
+        <v>4.5824404761904702</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30">
       <c r="B86">
         <v>5</v>
       </c>
@@ -2774,8 +2918,32 @@
       <c r="N86">
         <v>6.2364370748299303</v>
       </c>
-    </row>
-    <row r="87" spans="2:14">
+      <c r="R86">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>270945</v>
+      </c>
+      <c r="T86">
+        <v>260651</v>
+      </c>
+      <c r="U86">
+        <v>292425</v>
+      </c>
+      <c r="AA86">
+        <v>5</v>
+      </c>
+      <c r="AB86">
+        <v>5.6267113095237997</v>
+      </c>
+      <c r="AC86">
+        <v>5.6653858418367298</v>
+      </c>
+      <c r="AD86">
+        <v>5.5004570578231204</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30">
       <c r="B87">
         <v>6</v>
       </c>
@@ -2808,8 +2976,32 @@
       <c r="N87">
         <v>6.9776342828798104</v>
       </c>
-    </row>
-    <row r="88" spans="2:14">
+      <c r="R87">
+        <v>6</v>
+      </c>
+      <c r="S87">
+        <v>349140</v>
+      </c>
+      <c r="T87">
+        <v>343000</v>
+      </c>
+      <c r="U87">
+        <v>373159</v>
+      </c>
+      <c r="AA87">
+        <v>6</v>
+      </c>
+      <c r="AB87">
+        <v>6.3809275793650704</v>
+      </c>
+      <c r="AC87">
+        <v>6.4367293792517</v>
+      </c>
+      <c r="AD87">
+        <v>6.2123511904761903</v>
+      </c>
+    </row>
+    <row r="88" spans="2:30">
       <c r="B88">
         <v>7</v>
       </c>
@@ -2842,8 +3034,32 @@
       <c r="N88">
         <v>7.3621155753968202</v>
       </c>
-    </row>
-    <row r="89" spans="2:14">
+      <c r="R88">
+        <v>7</v>
+      </c>
+      <c r="S88">
+        <v>313789</v>
+      </c>
+      <c r="T88">
+        <v>321200</v>
+      </c>
+      <c r="U88">
+        <v>315822</v>
+      </c>
+      <c r="AA88">
+        <v>7</v>
+      </c>
+      <c r="AB88">
+        <v>6.7947916666666597</v>
+      </c>
+      <c r="AC88">
+        <v>6.8459387400793599</v>
+      </c>
+      <c r="AD88">
+        <v>6.6134176587301496</v>
+      </c>
+    </row>
+    <row r="89" spans="2:30">
       <c r="B89">
         <v>8</v>
       </c>
@@ -2876,8 +3092,32 @@
       <c r="N89">
         <v>7.0687251984126904</v>
       </c>
-    </row>
-    <row r="90" spans="2:14">
+      <c r="R89">
+        <v>8</v>
+      </c>
+      <c r="S89">
+        <v>186781</v>
+      </c>
+      <c r="T89">
+        <v>198785</v>
+      </c>
+      <c r="U89">
+        <v>162786</v>
+      </c>
+      <c r="AA89">
+        <v>8</v>
+      </c>
+      <c r="AB89">
+        <v>6.50838293650793</v>
+      </c>
+      <c r="AC89">
+        <v>6.5933283730158703</v>
+      </c>
+      <c r="AD89">
+        <v>6.4412202380952301</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30">
       <c r="B90">
         <v>9</v>
       </c>
@@ -2898,8 +3138,20 @@
         <f t="shared" si="20"/>
         <v>1598526</v>
       </c>
-    </row>
-    <row r="91" spans="2:14">
+      <c r="R90">
+        <v>9</v>
+      </c>
+      <c r="S90">
+        <v>71590</v>
+      </c>
+      <c r="T90">
+        <v>75535</v>
+      </c>
+      <c r="U90">
+        <v>47090</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30">
       <c r="B91">
         <v>10</v>
       </c>
@@ -2920,8 +3172,20 @@
         <f t="shared" si="20"/>
         <v>1032510</v>
       </c>
-    </row>
-    <row r="92" spans="2:14">
+      <c r="R91">
+        <v>10</v>
+      </c>
+      <c r="S91">
+        <v>16144</v>
+      </c>
+      <c r="T91">
+        <v>16412</v>
+      </c>
+      <c r="U91">
+        <v>6993</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30">
       <c r="B92">
         <v>11</v>
       </c>
@@ -2942,8 +3206,20 @@
         <f t="shared" si="20"/>
         <v>523347</v>
       </c>
-    </row>
-    <row r="93" spans="2:14">
+      <c r="R92">
+        <v>11</v>
+      </c>
+      <c r="S92">
+        <v>2190</v>
+      </c>
+      <c r="T92">
+        <v>1944</v>
+      </c>
+      <c r="U92">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30">
       <c r="B93">
         <v>12</v>
       </c>
@@ -2964,8 +3240,20 @@
         <f t="shared" si="20"/>
         <v>213660</v>
       </c>
-    </row>
-    <row r="94" spans="2:14">
+      <c r="R93">
+        <v>12</v>
+      </c>
+      <c r="S93">
+        <v>139</v>
+      </c>
+      <c r="T93">
+        <v>113</v>
+      </c>
+      <c r="U93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30">
       <c r="B94">
         <v>13</v>
       </c>
@@ -2986,8 +3274,14 @@
         <f t="shared" si="20"/>
         <v>66521</v>
       </c>
-    </row>
-    <row r="95" spans="2:14">
+      <c r="R94">
+        <v>13</v>
+      </c>
+      <c r="S94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30">
       <c r="B95">
         <v>14</v>
       </c>
@@ -3008,8 +3302,17 @@
         <f t="shared" si="20"/>
         <v>14658</v>
       </c>
-    </row>
-    <row r="96" spans="2:14">
+      <c r="S95">
+        <v>6.09837424370322</v>
+      </c>
+      <c r="T95">
+        <v>6.14583670023978</v>
+      </c>
+      <c r="U95">
+        <v>5.9504137046560004</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30">
       <c r="B96">
         <v>15</v>
       </c>
@@ -3031,7 +3334,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:30">
       <c r="B97">
         <v>16</v>
       </c>
@@ -3050,7 +3353,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:30">
       <c r="B98">
         <v>17</v>
       </c>
@@ -3066,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:30">
       <c r="C99">
         <f>H100/SUM(C81:C98)</f>
         <v>7.0393229240724162</v>
@@ -3079,7 +3382,7 @@
         <v>6.6921807080248703</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:30">
       <c r="H100">
         <f>SUM(H81:H98)</f>
         <v>10148796</v>
@@ -3089,7 +3392,7 @@
         <v>10233712</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -3132,8 +3435,32 @@
       <c r="P103" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="S103" t="s">
+        <v>2</v>
+      </c>
+      <c r="T103" t="s">
+        <v>3</v>
+      </c>
+      <c r="U103" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="B104">
         <v>0</v>
       </c>
@@ -3174,8 +3501,32 @@
       <c r="P104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:16">
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>256</v>
+      </c>
+      <c r="T104">
+        <v>256</v>
+      </c>
+      <c r="U104">
+        <v>256</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="B105">
         <v>1</v>
       </c>
@@ -3216,8 +3567,32 @@
       <c r="P105">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="R105">
+        <v>1</v>
+      </c>
+      <c r="S105">
+        <v>2304</v>
+      </c>
+      <c r="T105">
+        <v>2304</v>
+      </c>
+      <c r="U105">
+        <v>2304</v>
+      </c>
+      <c r="AA105">
+        <v>1</v>
+      </c>
+      <c r="AB105">
+        <v>1.5</v>
+      </c>
+      <c r="AC105">
+        <v>1.5</v>
+      </c>
+      <c r="AD105">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="B106">
         <v>2</v>
       </c>
@@ -3258,8 +3633,32 @@
       <c r="P106">
         <v>2.9119897959199998</v>
       </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>11664</v>
+      </c>
+      <c r="T106">
+        <v>11568</v>
+      </c>
+      <c r="U106">
+        <v>11904</v>
+      </c>
+      <c r="AA106">
+        <v>2</v>
+      </c>
+      <c r="AB106">
+        <v>2.9394132653061198</v>
+      </c>
+      <c r="AC106">
+        <v>2.94260204081632</v>
+      </c>
+      <c r="AD106">
+        <v>2.8960459183673399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
       <c r="B107">
         <v>3</v>
       </c>
@@ -3300,8 +3699,32 @@
       <c r="P107">
         <v>4.2353316326500003</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="R107">
+        <v>3</v>
+      </c>
+      <c r="S107">
+        <v>39424</v>
+      </c>
+      <c r="T107">
+        <v>38768</v>
+      </c>
+      <c r="U107">
+        <v>41944</v>
+      </c>
+      <c r="AA107">
+        <v>3</v>
+      </c>
+      <c r="AB107">
+        <v>4.2934736394557804</v>
+      </c>
+      <c r="AC107">
+        <v>4.3032525510203996</v>
+      </c>
+      <c r="AD107">
+        <v>4.1734162414965903</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
       <c r="B108">
         <v>4</v>
       </c>
@@ -3342,8 +3765,32 @@
       <c r="P108">
         <v>5.4641411564600002</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="R108">
+        <v>4</v>
+      </c>
+      <c r="S108">
+        <v>95486</v>
+      </c>
+      <c r="T108">
+        <v>93604</v>
+      </c>
+      <c r="U108">
+        <v>106533</v>
+      </c>
+      <c r="AA108">
+        <v>4</v>
+      </c>
+      <c r="AB108">
+        <v>5.5263095238095197</v>
+      </c>
+      <c r="AC108">
+        <v>5.5452465986394497</v>
+      </c>
+      <c r="AD108">
+        <v>5.3131972789115602</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
       <c r="B109">
         <v>5</v>
       </c>
@@ -3384,8 +3831,32 @@
       <c r="P109">
         <v>6.5762728528899999</v>
       </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="R109">
+        <v>5</v>
+      </c>
+      <c r="S109">
+        <v>174699</v>
+      </c>
+      <c r="T109">
+        <v>172466</v>
+      </c>
+      <c r="U109">
+        <v>202020</v>
+      </c>
+      <c r="AA109">
+        <v>5</v>
+      </c>
+      <c r="AB109">
+        <v>6.5861341411564602</v>
+      </c>
+      <c r="AC109">
+        <v>6.6125930059523803</v>
+      </c>
+      <c r="AD109">
+        <v>6.28401360544217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
       <c r="B110">
         <v>6</v>
       </c>
@@ -3426,8 +3897,32 @@
       <c r="P110">
         <v>7.5303252551000002</v>
       </c>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>247412</v>
+      </c>
+      <c r="T110">
+        <v>247086</v>
+      </c>
+      <c r="U110">
+        <v>286874</v>
+      </c>
+      <c r="AA110">
+        <v>6</v>
+      </c>
+      <c r="AB110">
+        <v>7.3933815192743699</v>
+      </c>
+      <c r="AC110">
+        <v>7.4108329790249403</v>
+      </c>
+      <c r="AD110">
+        <v>7.0210919784580499</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="B111">
         <v>7</v>
       </c>
@@ -3468,8 +3963,32 @@
       <c r="P111">
         <v>8.2145895337300008</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="R111">
+        <v>7</v>
+      </c>
+      <c r="S111">
+        <v>275659</v>
+      </c>
+      <c r="T111">
+        <v>279056</v>
+      </c>
+      <c r="U111">
+        <v>306065</v>
+      </c>
+      <c r="AA111">
+        <v>7</v>
+      </c>
+      <c r="AB111">
+        <v>7.8025886656746</v>
+      </c>
+      <c r="AC111">
+        <v>7.7504960317460299</v>
+      </c>
+      <c r="AD111">
+        <v>7.3783544146825397</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="B112">
         <v>8</v>
       </c>
@@ -3510,8 +4029,32 @@
       <c r="P112">
         <v>8.2946428571399995</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="R112">
+        <v>8</v>
+      </c>
+      <c r="S112">
+        <v>245010</v>
+      </c>
+      <c r="T112">
+        <v>248978</v>
+      </c>
+      <c r="U112">
+        <v>242346</v>
+      </c>
+      <c r="AA112">
+        <v>8</v>
+      </c>
+      <c r="AB112">
+        <v>7.3728174603174601</v>
+      </c>
+      <c r="AC112">
+        <v>7.3049603174603099</v>
+      </c>
+      <c r="AD112">
+        <v>7.06111111111111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
       <c r="B113">
         <v>9</v>
       </c>
@@ -3534,8 +4077,20 @@
         <f t="shared" si="21"/>
         <v>1579383</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="R113">
+        <v>9</v>
+      </c>
+      <c r="S113">
+        <v>175578</v>
+      </c>
+      <c r="T113">
+        <v>177275</v>
+      </c>
+      <c r="U113">
+        <v>144547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
       <c r="B114">
         <v>10</v>
       </c>
@@ -3558,8 +4113,20 @@
         <f t="shared" si="21"/>
         <v>1018050</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="R114">
+        <v>10</v>
+      </c>
+      <c r="S114">
+        <v>101814</v>
+      </c>
+      <c r="T114">
+        <v>101506</v>
+      </c>
+      <c r="U114">
+        <v>66216</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
       <c r="B115">
         <v>11</v>
       </c>
@@ -3582,8 +4149,20 @@
         <f t="shared" si="21"/>
         <v>527076</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="R115">
+        <v>11</v>
+      </c>
+      <c r="S115">
+        <v>47772</v>
+      </c>
+      <c r="T115">
+        <v>46183</v>
+      </c>
+      <c r="U115">
+        <v>23142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
       <c r="B116">
         <v>12</v>
       </c>
@@ -3606,8 +4185,20 @@
         <f t="shared" si="21"/>
         <v>219984</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="R116">
+        <v>12</v>
+      </c>
+      <c r="S116">
+        <v>18004</v>
+      </c>
+      <c r="T116">
+        <v>16814</v>
+      </c>
+      <c r="U116">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
       <c r="B117">
         <v>13</v>
       </c>
@@ -3630,8 +4221,20 @@
         <f t="shared" si="21"/>
         <v>72553</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="R117">
+        <v>13</v>
+      </c>
+      <c r="S117">
+        <v>5295</v>
+      </c>
+      <c r="T117">
+        <v>4732</v>
+      </c>
+      <c r="U117">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
       <c r="B118">
         <v>14</v>
       </c>
@@ -3654,8 +4257,20 @@
         <f t="shared" si="21"/>
         <v>18508</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="R118">
+        <v>14</v>
+      </c>
+      <c r="S118">
+        <v>1161</v>
+      </c>
+      <c r="T118">
+        <v>1004</v>
+      </c>
+      <c r="U118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
       <c r="B119">
         <v>15</v>
       </c>
@@ -3678,8 +4293,20 @@
         <f t="shared" si="21"/>
         <v>4080</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="R119">
+        <v>15</v>
+      </c>
+      <c r="S119">
+        <v>168</v>
+      </c>
+      <c r="T119">
+        <v>119</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
       <c r="B120">
         <v>16</v>
       </c>
@@ -3699,8 +4326,17 @@
         <f t="shared" si="21"/>
         <v>480</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="R120">
+        <v>16</v>
+      </c>
+      <c r="S120">
+        <v>20</v>
+      </c>
+      <c r="T120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30">
       <c r="B121">
         <v>17</v>
       </c>
@@ -3714,8 +4350,14 @@
         <f t="shared" si="21"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="R121">
+        <v>17</v>
+      </c>
+      <c r="S121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
       <c r="C122">
         <f>H123/SUM(C104:C121)</f>
         <v>7.0779883043207148</v>
@@ -3732,14 +4374,23 @@
       <c r="G122">
         <v>7.2389304786100004</v>
       </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="S122">
+        <v>7.0757888618457399</v>
+      </c>
+      <c r="T122">
+        <v>7.0776512090691099</v>
+      </c>
+      <c r="U122">
+        <v>6.7285377487724798</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
       <c r="H123">
         <f>SUM(H104:H121)</f>
         <v>10204541</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:30">
       <c r="C124" t="s">
         <v>2</v>
       </c>
@@ -3764,8 +4415,32 @@
       <c r="N124" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="S124" t="s">
+        <v>2</v>
+      </c>
+      <c r="T124" t="s">
+        <v>3</v>
+      </c>
+      <c r="U124" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB124" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" t="s">
         <v>14</v>
       </c>
@@ -3793,8 +4468,32 @@
       <c r="N125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="R125">
+        <v>0</v>
+      </c>
+      <c r="S125">
+        <v>256</v>
+      </c>
+      <c r="T125">
+        <v>256</v>
+      </c>
+      <c r="U125">
+        <v>256</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
       <c r="B126">
         <v>1</v>
       </c>
@@ -3819,8 +4518,32 @@
       <c r="N126">
         <v>1.21875</v>
       </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>3024</v>
+      </c>
+      <c r="T126">
+        <v>3024</v>
+      </c>
+      <c r="U126">
+        <v>3024</v>
+      </c>
+      <c r="AA126">
+        <v>1</v>
+      </c>
+      <c r="AB126">
+        <v>1.21875</v>
+      </c>
+      <c r="AC126">
+        <v>1.21875</v>
+      </c>
+      <c r="AD126">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30">
       <c r="B127">
         <v>2</v>
       </c>
@@ -3845,8 +4568,32 @@
       <c r="N127">
         <v>2.39923469387755</v>
       </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>16800</v>
+      </c>
+      <c r="T127">
+        <v>16623</v>
+      </c>
+      <c r="U127">
+        <v>16993</v>
+      </c>
+      <c r="AA127">
+        <v>2</v>
+      </c>
+      <c r="AB127">
+        <v>2.4209183673469301</v>
+      </c>
+      <c r="AC127">
+        <v>2.4221938775510199</v>
+      </c>
+      <c r="AD127">
+        <v>2.39923469387755</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30">
       <c r="B128">
         <v>3</v>
       </c>
@@ -3871,8 +4618,32 @@
       <c r="N128">
         <v>3.5360863095238</v>
       </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="R128">
+        <v>3</v>
+      </c>
+      <c r="S128">
+        <v>60016</v>
+      </c>
+      <c r="T128">
+        <v>58993</v>
+      </c>
+      <c r="U128">
+        <v>62417</v>
+      </c>
+      <c r="AA128">
+        <v>3</v>
+      </c>
+      <c r="AB128">
+        <v>3.5702062074829901</v>
+      </c>
+      <c r="AC128">
+        <v>3.5750425170067999</v>
+      </c>
+      <c r="AD128">
+        <v>3.5360863095238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30">
       <c r="B129">
         <v>4</v>
       </c>
@@ -3897,8 +4668,32 @@
       <c r="N129">
         <v>4.5824404761904702</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="R129">
+        <v>4</v>
+      </c>
+      <c r="S129">
+        <v>150912</v>
+      </c>
+      <c r="T129">
+        <v>145193</v>
+      </c>
+      <c r="U129">
+        <v>160236</v>
+      </c>
+      <c r="AA129">
+        <v>4</v>
+      </c>
+      <c r="AB129">
+        <v>4.6569387755102003</v>
+      </c>
+      <c r="AC129">
+        <v>4.6769982993197203</v>
+      </c>
+      <c r="AD129">
+        <v>4.5824404761904702</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30">
       <c r="B130">
         <v>5</v>
       </c>
@@ -3923,8 +4718,32 @@
       <c r="N130">
         <v>5.5004570578231204</v>
       </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="S130">
+        <v>270945</v>
+      </c>
+      <c r="T130">
+        <v>260651</v>
+      </c>
+      <c r="U130">
+        <v>292425</v>
+      </c>
+      <c r="AA130">
+        <v>5</v>
+      </c>
+      <c r="AB130">
+        <v>5.6267113095237997</v>
+      </c>
+      <c r="AC130">
+        <v>5.6653858418367298</v>
+      </c>
+      <c r="AD130">
+        <v>5.5004570578231204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30">
       <c r="B131">
         <v>6</v>
       </c>
@@ -3949,8 +4768,32 @@
       <c r="N131">
         <v>6.2123511904761903</v>
       </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="R131">
+        <v>6</v>
+      </c>
+      <c r="S131">
+        <v>349140</v>
+      </c>
+      <c r="T131">
+        <v>343000</v>
+      </c>
+      <c r="U131">
+        <v>373159</v>
+      </c>
+      <c r="AA131">
+        <v>6</v>
+      </c>
+      <c r="AB131">
+        <v>6.3809275793650704</v>
+      </c>
+      <c r="AC131">
+        <v>6.4367293792517</v>
+      </c>
+      <c r="AD131">
+        <v>6.2123511904761903</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30">
       <c r="B132">
         <v>7</v>
       </c>
@@ -3975,8 +4818,32 @@
       <c r="N132">
         <v>6.6134176587301496</v>
       </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="R132">
+        <v>7</v>
+      </c>
+      <c r="S132">
+        <v>313789</v>
+      </c>
+      <c r="T132">
+        <v>321200</v>
+      </c>
+      <c r="U132">
+        <v>315822</v>
+      </c>
+      <c r="AA132">
+        <v>7</v>
+      </c>
+      <c r="AB132">
+        <v>6.7947916666666597</v>
+      </c>
+      <c r="AC132">
+        <v>6.8459387400793599</v>
+      </c>
+      <c r="AD132">
+        <v>6.6134176587301496</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30">
       <c r="B133">
         <v>8</v>
       </c>
@@ -4001,8 +4868,32 @@
       <c r="N133">
         <v>6.4412202380952301</v>
       </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="R133">
+        <v>8</v>
+      </c>
+      <c r="S133">
+        <v>186781</v>
+      </c>
+      <c r="T133">
+        <v>198785</v>
+      </c>
+      <c r="U133">
+        <v>162786</v>
+      </c>
+      <c r="AA133">
+        <v>8</v>
+      </c>
+      <c r="AB133">
+        <v>6.50838293650793</v>
+      </c>
+      <c r="AC133">
+        <v>6.5933283730158703</v>
+      </c>
+      <c r="AD133">
+        <v>6.4412202380952301</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30">
       <c r="B134">
         <v>9</v>
       </c>
@@ -4015,8 +4906,20 @@
       <c r="E134">
         <v>47090</v>
       </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="R134">
+        <v>9</v>
+      </c>
+      <c r="S134">
+        <v>71590</v>
+      </c>
+      <c r="T134">
+        <v>75535</v>
+      </c>
+      <c r="U134">
+        <v>47090</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30">
       <c r="B135">
         <v>10</v>
       </c>
@@ -4029,8 +4932,20 @@
       <c r="E135">
         <v>6993</v>
       </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="R135">
+        <v>10</v>
+      </c>
+      <c r="S135">
+        <v>16144</v>
+      </c>
+      <c r="T135">
+        <v>16412</v>
+      </c>
+      <c r="U135">
+        <v>6993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30">
       <c r="B136">
         <v>11</v>
       </c>
@@ -4043,8 +4958,20 @@
       <c r="E136">
         <v>518</v>
       </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="R136">
+        <v>11</v>
+      </c>
+      <c r="S136">
+        <v>2190</v>
+      </c>
+      <c r="T136">
+        <v>1944</v>
+      </c>
+      <c r="U136">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30">
       <c r="B137">
         <v>12</v>
       </c>
@@ -4057,16 +4984,34 @@
       <c r="E137">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="R137">
+        <v>12</v>
+      </c>
+      <c r="S137">
+        <v>139</v>
+      </c>
+      <c r="T137">
+        <v>113</v>
+      </c>
+      <c r="U137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30">
       <c r="B138">
         <v>13</v>
       </c>
       <c r="C138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="R138">
+        <v>13</v>
+      </c>
+      <c r="S138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30">
       <c r="C139">
         <v>6.09837424370322</v>
       </c>
@@ -4076,8 +5021,17 @@
       <c r="E139">
         <v>5.9504137046560004</v>
       </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="S139">
+        <v>6.09837424370322</v>
+      </c>
+      <c r="T139">
+        <v>6.14583670023978</v>
+      </c>
+      <c r="U139">
+        <v>5.9504137046560004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30">
       <c r="C143" t="s">
         <v>2</v>
       </c>
@@ -4102,8 +5056,32 @@
       <c r="N143" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="S143" t="s">
+        <v>2</v>
+      </c>
+      <c r="T143" t="s">
+        <v>3</v>
+      </c>
+      <c r="U143" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -4131,8 +5109,32 @@
       <c r="N144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="2:14">
+      <c r="R144">
+        <v>0</v>
+      </c>
+      <c r="S144">
+        <v>256</v>
+      </c>
+      <c r="T144">
+        <v>256</v>
+      </c>
+      <c r="U144">
+        <v>256</v>
+      </c>
+      <c r="AA144">
+        <v>0</v>
+      </c>
+      <c r="AB144">
+        <v>0</v>
+      </c>
+      <c r="AC144">
+        <v>0</v>
+      </c>
+      <c r="AD144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:30">
       <c r="B145">
         <v>1</v>
       </c>
@@ -4157,8 +5159,32 @@
       <c r="N145">
         <v>1.21875</v>
       </c>
-    </row>
-    <row r="146" spans="2:14">
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>3024</v>
+      </c>
+      <c r="T145">
+        <v>3024</v>
+      </c>
+      <c r="U145">
+        <v>3024</v>
+      </c>
+      <c r="AA145">
+        <v>1</v>
+      </c>
+      <c r="AB145">
+        <v>1.21875</v>
+      </c>
+      <c r="AC145">
+        <v>1.21875</v>
+      </c>
+      <c r="AD145">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="146" spans="2:30">
       <c r="B146">
         <v>2</v>
       </c>
@@ -4183,8 +5209,32 @@
       <c r="N146">
         <v>2.3928571428571401</v>
       </c>
-    </row>
-    <row r="147" spans="2:14">
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>16652</v>
+      </c>
+      <c r="T146">
+        <v>16524</v>
+      </c>
+      <c r="U146">
+        <v>16860</v>
+      </c>
+      <c r="AA146">
+        <v>2</v>
+      </c>
+      <c r="AB146">
+        <v>2.4024234693877502</v>
+      </c>
+      <c r="AC146">
+        <v>2.4049744897959102</v>
+      </c>
+      <c r="AD146">
+        <v>2.3928571428571401</v>
+      </c>
+    </row>
+    <row r="147" spans="2:30">
       <c r="B147">
         <v>3</v>
       </c>
@@ -4209,8 +5259,32 @@
       <c r="N147">
         <v>3.5230654761904701</v>
       </c>
-    </row>
-    <row r="148" spans="2:14">
+      <c r="R147">
+        <v>3</v>
+      </c>
+      <c r="S147">
+        <v>60511</v>
+      </c>
+      <c r="T147">
+        <v>59523</v>
+      </c>
+      <c r="U147">
+        <v>62649</v>
+      </c>
+      <c r="AA147">
+        <v>3</v>
+      </c>
+      <c r="AB147">
+        <v>3.5587797619047601</v>
+      </c>
+      <c r="AC147">
+        <v>3.56478528911564</v>
+      </c>
+      <c r="AD147">
+        <v>3.5258290816326499</v>
+      </c>
+    </row>
+    <row r="148" spans="2:30">
       <c r="B148">
         <v>4</v>
       </c>
@@ -4235,8 +5309,32 @@
       <c r="N148">
         <v>4.5846768707482903</v>
       </c>
-    </row>
-    <row r="149" spans="2:14">
+      <c r="R148">
+        <v>4</v>
+      </c>
+      <c r="S148">
+        <v>150868</v>
+      </c>
+      <c r="T148">
+        <v>147482</v>
+      </c>
+      <c r="U148">
+        <v>160061</v>
+      </c>
+      <c r="AA148">
+        <v>4</v>
+      </c>
+      <c r="AB148">
+        <v>4.6656122448979502</v>
+      </c>
+      <c r="AC148">
+        <v>4.6770833333333304</v>
+      </c>
+      <c r="AD148">
+        <v>4.59386904761904</v>
+      </c>
+    </row>
+    <row r="149" spans="2:30">
       <c r="B149">
         <v>5</v>
       </c>
@@ -4261,8 +5359,32 @@
       <c r="N149">
         <v>5.50952912414966</v>
       </c>
-    </row>
-    <row r="150" spans="2:14">
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>266954</v>
+      </c>
+      <c r="T149">
+        <v>261844</v>
+      </c>
+      <c r="U149">
+        <v>288178</v>
+      </c>
+      <c r="AA149">
+        <v>5</v>
+      </c>
+      <c r="AB149">
+        <v>5.6476270195578202</v>
+      </c>
+      <c r="AC149">
+        <v>5.66948873299319</v>
+      </c>
+      <c r="AD149">
+        <v>5.5273623511904697</v>
+      </c>
+    </row>
+    <row r="150" spans="2:30">
       <c r="B150">
         <v>6</v>
       </c>
@@ -4287,8 +5409,32 @@
       <c r="N150">
         <v>6.2133060515873</v>
       </c>
-    </row>
-    <row r="151" spans="2:14">
+      <c r="R150">
+        <v>6</v>
+      </c>
+      <c r="S150">
+        <v>342232</v>
+      </c>
+      <c r="T150">
+        <v>341438</v>
+      </c>
+      <c r="U150">
+        <v>366858</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>6.4089338860544203</v>
+      </c>
+      <c r="AC150">
+        <v>6.4350641298185902</v>
+      </c>
+      <c r="AD150">
+        <v>6.2458085317460297</v>
+      </c>
+    </row>
+    <row r="151" spans="2:30">
       <c r="B151">
         <v>7</v>
       </c>
@@ -4313,8 +5459,32 @@
       <c r="N151">
         <v>6.5963138640872998</v>
       </c>
-    </row>
-    <row r="152" spans="2:14">
+      <c r="R151">
+        <v>7</v>
+      </c>
+      <c r="S151">
+        <v>312467</v>
+      </c>
+      <c r="T151">
+        <v>318080</v>
+      </c>
+      <c r="U151">
+        <v>314322</v>
+      </c>
+      <c r="AA151">
+        <v>7</v>
+      </c>
+      <c r="AB151">
+        <v>6.8236762152777697</v>
+      </c>
+      <c r="AC151">
+        <v>6.83398747519841</v>
+      </c>
+      <c r="AD151">
+        <v>6.63856026785714</v>
+      </c>
+    </row>
+    <row r="152" spans="2:30">
       <c r="B152">
         <v>8</v>
       </c>
@@ -4339,8 +5509,32 @@
       <c r="N152">
         <v>6.4015873015873002</v>
       </c>
-    </row>
-    <row r="153" spans="2:14">
+      <c r="R152">
+        <v>8</v>
+      </c>
+      <c r="S152">
+        <v>192004</v>
+      </c>
+      <c r="T152">
+        <v>196895</v>
+      </c>
+      <c r="U152">
+        <v>167413</v>
+      </c>
+      <c r="AA152">
+        <v>8</v>
+      </c>
+      <c r="AB152">
+        <v>6.5277777777777697</v>
+      </c>
+      <c r="AC152">
+        <v>6.5626984126984098</v>
+      </c>
+      <c r="AD152">
+        <v>6.4142857142857101</v>
+      </c>
+    </row>
+    <row r="153" spans="2:30">
       <c r="B153">
         <v>9</v>
       </c>
@@ -4353,8 +5547,20 @@
       <c r="E153">
         <v>47652</v>
       </c>
-    </row>
-    <row r="154" spans="2:14">
+      <c r="R153">
+        <v>9</v>
+      </c>
+      <c r="S153">
+        <v>76393</v>
+      </c>
+      <c r="T153">
+        <v>77230</v>
+      </c>
+      <c r="U153">
+        <v>52423</v>
+      </c>
+    </row>
+    <row r="154" spans="2:30">
       <c r="B154">
         <v>10</v>
       </c>
@@ -4367,8 +5573,20 @@
       <c r="E154">
         <v>7182</v>
       </c>
-    </row>
-    <row r="155" spans="2:14">
+      <c r="R154">
+        <v>10</v>
+      </c>
+      <c r="S154">
+        <v>17831</v>
+      </c>
+      <c r="T154">
+        <v>17172</v>
+      </c>
+      <c r="U154">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="155" spans="2:30">
       <c r="B155">
         <v>11</v>
       </c>
@@ -4381,8 +5599,20 @@
       <c r="E155">
         <v>579</v>
       </c>
-    </row>
-    <row r="156" spans="2:14">
+      <c r="R155">
+        <v>11</v>
+      </c>
+      <c r="S155">
+        <v>2337</v>
+      </c>
+      <c r="T155">
+        <v>2127</v>
+      </c>
+      <c r="U155">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="156" spans="2:30">
       <c r="B156">
         <v>12</v>
       </c>
@@ -4395,8 +5625,20 @@
       <c r="E156">
         <v>9</v>
       </c>
-    </row>
-    <row r="157" spans="2:14">
+      <c r="R156">
+        <v>12</v>
+      </c>
+      <c r="S156">
+        <v>192</v>
+      </c>
+      <c r="T156">
+        <v>131</v>
+      </c>
+      <c r="U156">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="2:30">
       <c r="B157">
         <v>13</v>
       </c>
@@ -4406,8 +5648,17 @@
       <c r="D157">
         <v>7</v>
       </c>
-    </row>
-    <row r="158" spans="2:14">
+      <c r="R157">
+        <v>13</v>
+      </c>
+      <c r="S157">
+        <v>8</v>
+      </c>
+      <c r="T157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:30">
       <c r="C158">
         <v>6.1828658506557002</v>
       </c>
@@ -4416,6 +5667,15 @@
       </c>
       <c r="E158">
         <v>5.9482260535787201</v>
+      </c>
+      <c r="S158">
+        <v>6.1223419935369199</v>
+      </c>
+      <c r="T158">
+        <v>6.1425795000308598</v>
+      </c>
+      <c r="U158">
+        <v>5.9761994105688299</v>
       </c>
     </row>
     <row r="161" spans="2:13">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6580445C-9D77-488B-809B-9BAFD31566A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91EACC-0289-443F-85AF-9890B61B0E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="1515" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
   <dimension ref="A1:AD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="AD144" sqref="AD144:AD152"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="AD81" sqref="AD81:AD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2690,25 +2690,25 @@
         <v>1</v>
       </c>
       <c r="S82">
-        <v>3024</v>
+        <v>2304</v>
       </c>
       <c r="T82">
-        <v>3024</v>
+        <v>2304</v>
       </c>
       <c r="U82">
-        <v>3024</v>
+        <v>2304</v>
       </c>
       <c r="AA82">
         <v>1</v>
       </c>
       <c r="AB82">
-        <v>1.21875</v>
+        <v>1.5</v>
       </c>
       <c r="AC82">
-        <v>1.21875</v>
+        <v>1.5</v>
       </c>
       <c r="AD82">
-        <v>1.21875</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="83" spans="2:30">
@@ -2748,25 +2748,25 @@
         <v>2</v>
       </c>
       <c r="S83">
-        <v>16800</v>
+        <v>11817</v>
       </c>
       <c r="T83">
-        <v>16623</v>
+        <v>11726</v>
       </c>
       <c r="U83">
-        <v>16993</v>
+        <v>12050</v>
       </c>
       <c r="AA83">
         <v>2</v>
       </c>
       <c r="AB83">
-        <v>2.4209183673469301</v>
+        <v>2.9349489795918302</v>
       </c>
       <c r="AC83">
-        <v>2.4221938775510199</v>
+        <v>2.9419642857142798</v>
       </c>
       <c r="AD83">
-        <v>2.39923469387755</v>
+        <v>2.8826530612244898</v>
       </c>
     </row>
     <row r="84" spans="2:30">
@@ -2806,25 +2806,25 @@
         <v>3</v>
       </c>
       <c r="S84">
-        <v>60016</v>
+        <v>39475</v>
       </c>
       <c r="T84">
-        <v>58993</v>
+        <v>38373</v>
       </c>
       <c r="U84">
-        <v>62417</v>
+        <v>41978</v>
       </c>
       <c r="AA84">
         <v>3</v>
       </c>
       <c r="AB84">
-        <v>3.5702062074829901</v>
+        <v>4.2778486394557804</v>
       </c>
       <c r="AC84">
-        <v>3.5750425170067999</v>
+        <v>4.3034119897959098</v>
       </c>
       <c r="AD84">
-        <v>3.5360863095238</v>
+        <v>4.1333439625850303</v>
       </c>
     </row>
     <row r="85" spans="2:30">
@@ -2864,25 +2864,25 @@
         <v>4</v>
       </c>
       <c r="S85">
-        <v>150912</v>
+        <v>97489</v>
       </c>
       <c r="T85">
-        <v>145193</v>
+        <v>93680</v>
       </c>
       <c r="U85">
-        <v>160236</v>
+        <v>109119</v>
       </c>
       <c r="AA85">
         <v>4</v>
       </c>
       <c r="AB85">
-        <v>4.6569387755102003</v>
+        <v>5.5017091836734604</v>
       </c>
       <c r="AC85">
-        <v>4.6769982993197203</v>
+        <v>5.5366156462585003</v>
       </c>
       <c r="AD85">
-        <v>4.5824404761904702</v>
+        <v>5.2414200680272103</v>
       </c>
     </row>
     <row r="86" spans="2:30">
@@ -2922,25 +2922,25 @@
         <v>5</v>
       </c>
       <c r="S86">
-        <v>270945</v>
+        <v>180309</v>
       </c>
       <c r="T86">
-        <v>260651</v>
+        <v>172676</v>
       </c>
       <c r="U86">
-        <v>292425</v>
+        <v>209606</v>
       </c>
       <c r="AA86">
         <v>5</v>
       </c>
       <c r="AB86">
-        <v>5.6267113095237997</v>
+        <v>6.5470689838435296</v>
       </c>
       <c r="AC86">
-        <v>5.6653858418367298</v>
+        <v>6.60688775510204</v>
       </c>
       <c r="AD86">
-        <v>5.5004570578231204</v>
+        <v>6.18625637755102</v>
       </c>
     </row>
     <row r="87" spans="2:30">
@@ -2980,25 +2980,25 @@
         <v>6</v>
       </c>
       <c r="S87">
-        <v>349140</v>
+        <v>252932</v>
       </c>
       <c r="T87">
-        <v>343000</v>
+        <v>247131</v>
       </c>
       <c r="U87">
-        <v>373159</v>
+        <v>298811</v>
       </c>
       <c r="AA87">
         <v>6</v>
       </c>
       <c r="AB87">
-        <v>6.3809275793650704</v>
+        <v>7.3460158021541897</v>
       </c>
       <c r="AC87">
-        <v>6.4367293792517</v>
+        <v>7.40800028344671</v>
       </c>
       <c r="AD87">
-        <v>6.2123511904761903</v>
+        <v>6.9071747448979499</v>
       </c>
     </row>
     <row r="88" spans="2:30">
@@ -3038,25 +3038,25 @@
         <v>7</v>
       </c>
       <c r="S88">
-        <v>313789</v>
+        <v>277196</v>
       </c>
       <c r="T88">
-        <v>321200</v>
+        <v>279861</v>
       </c>
       <c r="U88">
-        <v>315822</v>
+        <v>316532</v>
       </c>
       <c r="AA88">
         <v>7</v>
       </c>
       <c r="AB88">
-        <v>6.7947916666666597</v>
+        <v>7.7546161954365003</v>
       </c>
       <c r="AC88">
-        <v>6.8459387400793599</v>
+        <v>7.74985739087301</v>
       </c>
       <c r="AD88">
-        <v>6.6134176587301496</v>
+        <v>7.2733723958333298</v>
       </c>
     </row>
     <row r="89" spans="2:30">
@@ -3096,25 +3096,25 @@
         <v>8</v>
       </c>
       <c r="S89">
-        <v>186781</v>
+        <v>242597</v>
       </c>
       <c r="T89">
-        <v>198785</v>
+        <v>249875</v>
       </c>
       <c r="U89">
-        <v>162786</v>
+        <v>244406</v>
       </c>
       <c r="AA89">
         <v>8</v>
       </c>
       <c r="AB89">
-        <v>6.50838293650793</v>
+        <v>7.30525793650793</v>
       </c>
       <c r="AC89">
-        <v>6.5933283730158703</v>
+        <v>7.3134672619047603</v>
       </c>
       <c r="AD89">
-        <v>6.4412202380952301</v>
+        <v>7.0126736111111097</v>
       </c>
     </row>
     <row r="90" spans="2:30">
@@ -3142,13 +3142,13 @@
         <v>9</v>
       </c>
       <c r="S90">
-        <v>71590</v>
+        <v>170577</v>
       </c>
       <c r="T90">
-        <v>75535</v>
+        <v>176818</v>
       </c>
       <c r="U90">
-        <v>47090</v>
+        <v>134969</v>
       </c>
     </row>
     <row r="91" spans="2:30">
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="S91">
-        <v>16144</v>
+        <v>97554</v>
       </c>
       <c r="T91">
-        <v>16412</v>
+        <v>100566</v>
       </c>
       <c r="U91">
-        <v>6993</v>
+        <v>53379</v>
       </c>
     </row>
     <row r="92" spans="2:30">
@@ -3210,13 +3210,13 @@
         <v>11</v>
       </c>
       <c r="S92">
-        <v>2190</v>
+        <v>45567</v>
       </c>
       <c r="T92">
-        <v>1944</v>
+        <v>45958</v>
       </c>
       <c r="U92">
-        <v>518</v>
+        <v>14899</v>
       </c>
     </row>
     <row r="93" spans="2:30">
@@ -3244,13 +3244,13 @@
         <v>12</v>
       </c>
       <c r="S93">
-        <v>139</v>
+        <v>17192</v>
       </c>
       <c r="T93">
-        <v>113</v>
+        <v>16695</v>
       </c>
       <c r="U93">
-        <v>10</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="94" spans="2:30">
@@ -3278,7 +3278,13 @@
         <v>13</v>
       </c>
       <c r="S94">
-        <v>3</v>
+        <v>5083</v>
+      </c>
+      <c r="T94">
+        <v>4735</v>
+      </c>
+      <c r="U94">
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="2:30">
@@ -3302,14 +3308,17 @@
         <f t="shared" si="20"/>
         <v>14658</v>
       </c>
+      <c r="R95">
+        <v>14</v>
+      </c>
       <c r="S95">
-        <v>6.09837424370322</v>
+        <v>1162</v>
       </c>
       <c r="T95">
-        <v>6.14583670023978</v>
+        <v>945</v>
       </c>
       <c r="U95">
-        <v>5.9504137046560004</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="2:30">
@@ -3333,6 +3342,18 @@
         <f t="shared" si="20"/>
         <v>2505</v>
       </c>
+      <c r="R96">
+        <v>15</v>
+      </c>
+      <c r="S96">
+        <v>192</v>
+      </c>
+      <c r="T96">
+        <v>120</v>
+      </c>
+      <c r="U96">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:30">
       <c r="B97">
@@ -3352,6 +3373,15 @@
         <f t="shared" si="20"/>
         <v>144</v>
       </c>
+      <c r="R97">
+        <v>16</v>
+      </c>
+      <c r="S97">
+        <v>24</v>
+      </c>
+      <c r="T97">
+        <v>10</v>
+      </c>
     </row>
     <row r="98" spans="1:30">
       <c r="B98">
@@ -3367,6 +3397,12 @@
       <c r="I98">
         <f t="shared" si="20"/>
         <v>0</v>
+      </c>
+      <c r="R98">
+        <v>17</v>
+      </c>
+      <c r="S98">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -3380,6 +3416,15 @@
       </c>
       <c r="E99">
         <v>6.6921807080248703</v>
+      </c>
+      <c r="S99">
+        <v>7.03220924320728</v>
+      </c>
+      <c r="T99">
+        <v>7.0744453361207196</v>
+      </c>
+      <c r="U99">
+        <v>6.6271844431234896</v>
       </c>
     </row>
     <row r="100" spans="1:30">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91EACC-0289-443F-85AF-9890B61B0E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CA299-44C0-4219-B2C0-B09F5E4330F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="1515" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CA299-44C0-4219-B2C0-B09F5E4330F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC41B6DE-348D-458A-AC16-1D5FF6AFEBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="855" yWindow="1515" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
   <dimension ref="A1:AD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="AD81" sqref="AD81:AD89"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2748,25 +2748,25 @@
         <v>2</v>
       </c>
       <c r="S83">
-        <v>11817</v>
+        <v>11796</v>
       </c>
       <c r="T83">
-        <v>11726</v>
+        <v>11748</v>
       </c>
       <c r="U83">
-        <v>12050</v>
+        <v>12042</v>
       </c>
       <c r="AA83">
         <v>2</v>
       </c>
       <c r="AB83">
+        <v>2.9406887755101998</v>
+      </c>
+      <c r="AC83">
         <v>2.9349489795918302</v>
       </c>
-      <c r="AC83">
-        <v>2.9419642857142798</v>
-      </c>
       <c r="AD83">
-        <v>2.8826530612244898</v>
+        <v>2.88010204081632</v>
       </c>
     </row>
     <row r="84" spans="2:30">
@@ -2806,22 +2806,22 @@
         <v>3</v>
       </c>
       <c r="S84">
-        <v>39475</v>
+        <v>39448</v>
       </c>
       <c r="T84">
-        <v>38373</v>
+        <v>38407</v>
       </c>
       <c r="U84">
-        <v>41978</v>
+        <v>41980</v>
       </c>
       <c r="AA84">
         <v>3</v>
       </c>
       <c r="AB84">
-        <v>4.2778486394557804</v>
+        <v>4.2795493197278898</v>
       </c>
       <c r="AC84">
-        <v>4.3034119897959098</v>
+        <v>4.2999574829931904</v>
       </c>
       <c r="AD84">
         <v>4.1333439625850303</v>
@@ -2864,25 +2864,25 @@
         <v>4</v>
       </c>
       <c r="S85">
-        <v>97489</v>
+        <v>97441</v>
       </c>
       <c r="T85">
-        <v>93680</v>
+        <v>93510</v>
       </c>
       <c r="U85">
-        <v>109119</v>
+        <v>109131</v>
       </c>
       <c r="AA85">
         <v>4</v>
       </c>
       <c r="AB85">
-        <v>5.5017091836734604</v>
+        <v>5.5005527210884297</v>
       </c>
       <c r="AC85">
-        <v>5.5366156462585003</v>
+        <v>5.53553571428571</v>
       </c>
       <c r="AD85">
-        <v>5.2414200680272103</v>
+        <v>5.2406122448979504</v>
       </c>
     </row>
     <row r="86" spans="2:30">
@@ -2922,25 +2922,25 @@
         <v>5</v>
       </c>
       <c r="S86">
-        <v>180309</v>
+        <v>180421</v>
       </c>
       <c r="T86">
-        <v>172676</v>
+        <v>172802</v>
       </c>
       <c r="U86">
-        <v>209606</v>
+        <v>209756</v>
       </c>
       <c r="AA86">
         <v>5</v>
       </c>
       <c r="AB86">
-        <v>6.5470689838435296</v>
+        <v>6.5449962797619001</v>
       </c>
       <c r="AC86">
-        <v>6.60688775510204</v>
+        <v>6.6074883078231297</v>
       </c>
       <c r="AD86">
-        <v>6.18625637755102</v>
+        <v>6.1859986181972699</v>
       </c>
     </row>
     <row r="87" spans="2:30">
@@ -2980,25 +2980,25 @@
         <v>6</v>
       </c>
       <c r="S87">
-        <v>252932</v>
+        <v>252911</v>
       </c>
       <c r="T87">
-        <v>247131</v>
+        <v>247307</v>
       </c>
       <c r="U87">
-        <v>298811</v>
+        <v>298657</v>
       </c>
       <c r="AA87">
         <v>6</v>
       </c>
       <c r="AB87">
-        <v>7.3460158021541897</v>
+        <v>7.3443080357142803</v>
       </c>
       <c r="AC87">
-        <v>7.40800028344671</v>
+        <v>7.4076229450113296</v>
       </c>
       <c r="AD87">
-        <v>6.9071747448979499</v>
+        <v>6.9074493339002201</v>
       </c>
     </row>
     <row r="88" spans="2:30">
@@ -3038,25 +3038,25 @@
         <v>7</v>
       </c>
       <c r="S88">
-        <v>277196</v>
+        <v>277678</v>
       </c>
       <c r="T88">
-        <v>279861</v>
+        <v>279723</v>
       </c>
       <c r="U88">
-        <v>316532</v>
+        <v>316512</v>
       </c>
       <c r="AA88">
         <v>7</v>
       </c>
       <c r="AB88">
-        <v>7.7546161954365003</v>
+        <v>7.7524491567460299</v>
       </c>
       <c r="AC88">
-        <v>7.74985739087301</v>
+        <v>7.7492714533730096</v>
       </c>
       <c r="AD88">
-        <v>7.2733723958333298</v>
+        <v>7.2734592013888797</v>
       </c>
     </row>
     <row r="89" spans="2:30">
@@ -3096,25 +3096,25 @@
         <v>8</v>
       </c>
       <c r="S89">
-        <v>242597</v>
+        <v>242775</v>
       </c>
       <c r="T89">
-        <v>249875</v>
+        <v>249917</v>
       </c>
       <c r="U89">
-        <v>244406</v>
+        <v>244342</v>
       </c>
       <c r="AA89">
         <v>8</v>
       </c>
       <c r="AB89">
-        <v>7.30525793650793</v>
+        <v>7.3056547619047603</v>
       </c>
       <c r="AC89">
-        <v>7.3134672619047603</v>
+        <v>7.3126488095238003</v>
       </c>
       <c r="AD89">
-        <v>7.0126736111111097</v>
+        <v>7.0133680555555502</v>
       </c>
     </row>
     <row r="90" spans="2:30">
@@ -3142,13 +3142,13 @@
         <v>9</v>
       </c>
       <c r="S90">
-        <v>170577</v>
+        <v>170533</v>
       </c>
       <c r="T90">
-        <v>176818</v>
+        <v>176731</v>
       </c>
       <c r="U90">
-        <v>134969</v>
+        <v>134939</v>
       </c>
     </row>
     <row r="91" spans="2:30">
@@ -3176,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="S91">
-        <v>97554</v>
+        <v>97430</v>
       </c>
       <c r="T91">
-        <v>100566</v>
+        <v>100726</v>
       </c>
       <c r="U91">
-        <v>53379</v>
+        <v>53458</v>
       </c>
     </row>
     <row r="92" spans="2:30">
@@ -3210,13 +3210,13 @@
         <v>11</v>
       </c>
       <c r="S92">
-        <v>45567</v>
+        <v>45329</v>
       </c>
       <c r="T92">
-        <v>45958</v>
+        <v>45813</v>
       </c>
       <c r="U92">
-        <v>14899</v>
+        <v>14999</v>
       </c>
     </row>
     <row r="93" spans="2:30">
@@ -3244,13 +3244,13 @@
         <v>12</v>
       </c>
       <c r="S93">
-        <v>17192</v>
+        <v>17137</v>
       </c>
       <c r="T93">
-        <v>16695</v>
+        <v>16622</v>
       </c>
       <c r="U93">
-        <v>2980</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="94" spans="2:30">
@@ -3278,13 +3278,13 @@
         <v>13</v>
       </c>
       <c r="S94">
-        <v>5083</v>
+        <v>4899</v>
       </c>
       <c r="T94">
-        <v>4735</v>
+        <v>4763</v>
       </c>
       <c r="U94">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="2:30">
@@ -3312,13 +3312,13 @@
         <v>14</v>
       </c>
       <c r="S95">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="T95">
-        <v>945</v>
+        <v>966</v>
       </c>
       <c r="U95">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="2:30">
@@ -3346,13 +3346,13 @@
         <v>15</v>
       </c>
       <c r="S96">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="T96">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -3377,10 +3377,10 @@
         <v>16</v>
       </c>
       <c r="S97">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T97">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -3402,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -3418,13 +3418,13 @@
         <v>6.6921807080248703</v>
       </c>
       <c r="S99">
-        <v>7.03220924320728</v>
+        <v>7.0304599546794098</v>
       </c>
       <c r="T99">
-        <v>7.0744453361207196</v>
+        <v>7.0741595681296499</v>
       </c>
       <c r="U99">
-        <v>6.6271844431234896</v>
+        <v>6.6271948472979298</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -4617,25 +4617,25 @@
         <v>2</v>
       </c>
       <c r="S127">
-        <v>16800</v>
+        <v>16802</v>
       </c>
       <c r="T127">
-        <v>16623</v>
+        <v>16682</v>
       </c>
       <c r="U127">
-        <v>16993</v>
+        <v>16995</v>
       </c>
       <c r="AA127">
         <v>2</v>
       </c>
       <c r="AB127">
-        <v>2.4209183673469301</v>
+        <v>2.4068877551020398</v>
       </c>
       <c r="AC127">
-        <v>2.4221938775510199</v>
+        <v>2.40051020408163</v>
       </c>
       <c r="AD127">
-        <v>2.39923469387755</v>
+        <v>2.3941326530612201</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -4667,25 +4667,25 @@
         <v>3</v>
       </c>
       <c r="S128">
-        <v>60016</v>
+        <v>60537</v>
       </c>
       <c r="T128">
-        <v>58993</v>
+        <v>59264</v>
       </c>
       <c r="U128">
-        <v>62417</v>
+        <v>62715</v>
       </c>
       <c r="AA128">
         <v>3</v>
       </c>
       <c r="AB128">
-        <v>3.5702062074829901</v>
+        <v>3.5642006802721</v>
       </c>
       <c r="AC128">
-        <v>3.5750425170067999</v>
+        <v>3.5727572278911501</v>
       </c>
       <c r="AD128">
-        <v>3.5360863095238</v>
+        <v>3.5216836734693802</v>
       </c>
     </row>
     <row r="129" spans="1:30">
@@ -4717,25 +4717,25 @@
         <v>4</v>
       </c>
       <c r="S129">
-        <v>150912</v>
+        <v>150291</v>
       </c>
       <c r="T129">
-        <v>145193</v>
+        <v>145431</v>
       </c>
       <c r="U129">
-        <v>160236</v>
+        <v>160521</v>
       </c>
       <c r="AA129">
         <v>4</v>
       </c>
       <c r="AB129">
-        <v>4.6569387755102003</v>
+        <v>4.6722193877551002</v>
       </c>
       <c r="AC129">
-        <v>4.6769982993197203</v>
+        <v>4.68761904761904</v>
       </c>
       <c r="AD129">
-        <v>4.5824404761904702</v>
+        <v>4.58216836734693</v>
       </c>
     </row>
     <row r="130" spans="1:30">
@@ -4767,25 +4767,25 @@
         <v>5</v>
       </c>
       <c r="S130">
-        <v>270945</v>
+        <v>266712</v>
       </c>
       <c r="T130">
-        <v>260651</v>
+        <v>258969</v>
       </c>
       <c r="U130">
-        <v>292425</v>
+        <v>292454</v>
       </c>
       <c r="AA130">
         <v>5</v>
       </c>
       <c r="AB130">
-        <v>5.6267113095237997</v>
+        <v>5.6667729591836702</v>
       </c>
       <c r="AC130">
-        <v>5.6653858418367298</v>
+        <v>5.6878188775510203</v>
       </c>
       <c r="AD130">
-        <v>5.5004570578231204</v>
+        <v>5.5069169855442102</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -4817,25 +4817,25 @@
         <v>6</v>
       </c>
       <c r="S131">
-        <v>349140</v>
+        <v>339932</v>
       </c>
       <c r="T131">
-        <v>343000</v>
+        <v>339009</v>
       </c>
       <c r="U131">
-        <v>373159</v>
+        <v>372882</v>
       </c>
       <c r="AA131">
         <v>6</v>
       </c>
       <c r="AB131">
-        <v>6.3809275793650704</v>
+        <v>6.4407560941042998</v>
       </c>
       <c r="AC131">
-        <v>6.4367293792517</v>
+        <v>6.4618090986394501</v>
       </c>
       <c r="AD131">
-        <v>6.2123511904761903</v>
+        <v>6.2127090419501103</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -4867,25 +4867,25 @@
         <v>7</v>
       </c>
       <c r="S132">
-        <v>313789</v>
+        <v>306013</v>
       </c>
       <c r="T132">
-        <v>321200</v>
+        <v>317508</v>
       </c>
       <c r="U132">
-        <v>315822</v>
+        <v>315045</v>
       </c>
       <c r="AA132">
         <v>7</v>
       </c>
       <c r="AB132">
-        <v>6.7947916666666597</v>
+        <v>6.8470672123015799</v>
       </c>
       <c r="AC132">
-        <v>6.8459387400793599</v>
+        <v>6.8566995287698402</v>
       </c>
       <c r="AD132">
-        <v>6.6134176587301496</v>
+        <v>6.6038101438492003</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -4917,25 +4917,25 @@
         <v>8</v>
       </c>
       <c r="S133">
-        <v>186781</v>
+        <v>190828</v>
       </c>
       <c r="T133">
-        <v>198785</v>
+        <v>199573</v>
       </c>
       <c r="U133">
-        <v>162786</v>
+        <v>163148</v>
       </c>
       <c r="AA133">
         <v>8</v>
       </c>
       <c r="AB133">
-        <v>6.50838293650793</v>
+        <v>6.5053819444444398</v>
       </c>
       <c r="AC133">
-        <v>6.5933283730158703</v>
+        <v>6.5720982142857096</v>
       </c>
       <c r="AD133">
-        <v>6.4412202380952301</v>
+        <v>6.4201140873015801</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -4955,13 +4955,13 @@
         <v>9</v>
       </c>
       <c r="S134">
-        <v>71590</v>
+        <v>80399</v>
       </c>
       <c r="T134">
-        <v>75535</v>
+        <v>80116</v>
       </c>
       <c r="U134">
-        <v>47090</v>
+        <v>47365</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -4981,13 +4981,13 @@
         <v>10</v>
       </c>
       <c r="S135">
-        <v>16144</v>
+        <v>22251</v>
       </c>
       <c r="T135">
-        <v>16412</v>
+        <v>19066</v>
       </c>
       <c r="U135">
-        <v>6993</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="136" spans="1:30">
@@ -5007,13 +5007,13 @@
         <v>11</v>
       </c>
       <c r="S136">
-        <v>2190</v>
+        <v>4155</v>
       </c>
       <c r="T136">
-        <v>1944</v>
+        <v>2611</v>
       </c>
       <c r="U136">
-        <v>518</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="1:30">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="S137">
-        <v>139</v>
+        <v>499</v>
       </c>
       <c r="T137">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="U137">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:30">
@@ -5053,7 +5053,10 @@
         <v>13</v>
       </c>
       <c r="S138">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="T138">
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:30">
@@ -5067,13 +5070,13 @@
         <v>5.9504137046560004</v>
       </c>
       <c r="S139">
-        <v>6.09837424370322</v>
+        <v>6.1450203193526596</v>
       </c>
       <c r="T139">
-        <v>6.14583670023978</v>
+        <v>6.1641383366776896</v>
       </c>
       <c r="U139">
-        <v>5.9504137046560004</v>
+        <v>5.9492845049242904</v>
       </c>
     </row>
     <row r="143" spans="1:30">

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-catsai\Documents\GitHub\quantum-logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine/Documents/GitHub/finals/quantum-logic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC41B6DE-348D-458A-AC16-1D5FF6AFEBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BE4397-7AA1-D64D-9D0F-BA4EFB7C8833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1515" windowWidth="21345" windowHeight="11385" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
+    <workbookView xWindow="860" yWindow="1520" windowWidth="21340" windowHeight="11380" xr2:uid="{7C5E44C8-BDD1-4C44-B704-2EC02533EA0C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>permute_&amp;controlmin_&amp;bidirectional</t>
   </si>
   <si>
-    <t>partial_with_controlmin</t>
-  </si>
-  <si>
     <t>care_terms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,23 +94,36 @@
   <si>
     <t>qGDBL</t>
   </si>
+  <si>
+    <t>partial_with_controlmin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -138,8 +148,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -456,11 +467,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF64B1A-10D2-4C49-8A19-69967E02A6AC}">
   <dimension ref="A1:AD180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="X94" sqref="X94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -2541,7 +2552,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
         <v>5</v>
@@ -2556,13 +2567,13 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
+        <v>10</v>
+      </c>
+      <c r="K80" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" t="s">
         <v>11</v>
-      </c>
-      <c r="K80" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" t="s">
-        <v>12</v>
       </c>
       <c r="M80" t="s">
         <v>3</v>
@@ -2580,13 +2591,13 @@
         <v>4</v>
       </c>
       <c r="Z80" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB80" t="s">
         <v>11</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>12</v>
       </c>
       <c r="AC80" t="s">
         <v>3</v>
@@ -2632,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="S81">
-        <v>256</v>
+        <v>56</v>
       </c>
       <c r="T81">
         <v>256</v>
@@ -2646,7 +2657,7 @@
       <c r="AB81">
         <v>0</v>
       </c>
-      <c r="AC81">
+      <c r="AC81" s="1">
         <v>0</v>
       </c>
       <c r="AD81">
@@ -2748,25 +2759,25 @@
         <v>2</v>
       </c>
       <c r="S83">
-        <v>11796</v>
+        <v>12600</v>
       </c>
       <c r="T83">
-        <v>11748</v>
+        <v>12312</v>
       </c>
       <c r="U83">
-        <v>12042</v>
+        <v>12432</v>
       </c>
       <c r="AA83">
         <v>2</v>
       </c>
       <c r="AB83">
-        <v>2.9406887755101998</v>
+        <v>2.7761479591836702</v>
       </c>
       <c r="AC83">
-        <v>2.9349489795918302</v>
+        <v>2.7876275510204001</v>
       </c>
       <c r="AD83">
-        <v>2.88010204081632</v>
+        <v>2.7595663265306101</v>
       </c>
     </row>
     <row r="84" spans="2:30">
@@ -2806,25 +2817,25 @@
         <v>3</v>
       </c>
       <c r="S84">
-        <v>39448</v>
+        <v>46153</v>
       </c>
       <c r="T84">
-        <v>38407</v>
+        <v>43945</v>
       </c>
       <c r="U84">
-        <v>41980</v>
+        <v>46379</v>
       </c>
       <c r="AA84">
         <v>3</v>
       </c>
       <c r="AB84">
-        <v>4.2795493197278898</v>
+        <v>4.0057397959183598</v>
       </c>
       <c r="AC84">
-        <v>4.2999574829931904</v>
+        <v>4.03613945578231</v>
       </c>
       <c r="AD84">
-        <v>4.1333439625850303</v>
+        <v>3.9529655612244898</v>
       </c>
     </row>
     <row r="85" spans="2:30">
@@ -2864,25 +2875,25 @@
         <v>4</v>
       </c>
       <c r="S85">
-        <v>97441</v>
+        <v>115751</v>
       </c>
       <c r="T85">
-        <v>93510</v>
+        <v>108439</v>
       </c>
       <c r="U85">
-        <v>109131</v>
+        <v>120742</v>
       </c>
       <c r="AA85">
         <v>4</v>
       </c>
       <c r="AB85">
-        <v>5.5005527210884297</v>
+        <v>5.1590646258503403</v>
       </c>
       <c r="AC85">
-        <v>5.53553571428571</v>
+        <v>5.2184608843537399</v>
       </c>
       <c r="AD85">
-        <v>5.2406122448979504</v>
+        <v>5.0497363945578204</v>
       </c>
     </row>
     <row r="86" spans="2:30">
@@ -2922,25 +2933,25 @@
         <v>5</v>
       </c>
       <c r="S86">
-        <v>180421</v>
+        <v>210603</v>
       </c>
       <c r="T86">
-        <v>172802</v>
+        <v>198279</v>
       </c>
       <c r="U86">
-        <v>209756</v>
+        <v>228482</v>
       </c>
       <c r="AA86">
         <v>5</v>
       </c>
       <c r="AB86">
-        <v>6.5449962797619001</v>
+        <v>6.1810028698979496</v>
       </c>
       <c r="AC86">
-        <v>6.6074883078231297</v>
+        <v>6.2691060799319702</v>
       </c>
       <c r="AD86">
-        <v>6.1859986181972699</v>
+        <v>6.0034199617346902</v>
       </c>
     </row>
     <row r="87" spans="2:30">
@@ -2980,25 +2991,25 @@
         <v>6</v>
       </c>
       <c r="S87">
-        <v>252911</v>
+        <v>281573</v>
       </c>
       <c r="T87">
-        <v>247307</v>
+        <v>273868</v>
       </c>
       <c r="U87">
-        <v>298657</v>
+        <v>313562</v>
       </c>
       <c r="AA87">
         <v>6</v>
       </c>
       <c r="AB87">
-        <v>7.3443080357142803</v>
+        <v>7.00385841836734</v>
       </c>
       <c r="AC87">
-        <v>7.4076229450113296</v>
+        <v>7.0898224914965899</v>
       </c>
       <c r="AD87">
-        <v>6.9074493339002201</v>
+        <v>6.7574475623582702</v>
       </c>
     </row>
     <row r="88" spans="2:30">
@@ -3038,25 +3049,25 @@
         <v>7</v>
       </c>
       <c r="S88">
-        <v>277678</v>
+        <v>287056</v>
       </c>
       <c r="T88">
-        <v>279723</v>
+        <v>294574</v>
       </c>
       <c r="U88">
-        <v>316512</v>
+        <v>314140</v>
       </c>
       <c r="AA88">
         <v>7</v>
       </c>
       <c r="AB88">
-        <v>7.7524491567460299</v>
+        <v>7.5356708829364996</v>
       </c>
       <c r="AC88">
-        <v>7.7492714533730096</v>
+        <v>7.5224082341269796</v>
       </c>
       <c r="AD88">
-        <v>7.2734592013888797</v>
+        <v>7.2151041666666602</v>
       </c>
     </row>
     <row r="89" spans="2:30">
@@ -3096,25 +3107,25 @@
         <v>8</v>
       </c>
       <c r="S89">
-        <v>242775</v>
+        <v>227810</v>
       </c>
       <c r="T89">
-        <v>249917</v>
+        <v>243244</v>
       </c>
       <c r="U89">
-        <v>244342</v>
+        <v>225763</v>
       </c>
       <c r="AA89">
         <v>8</v>
       </c>
       <c r="AB89">
-        <v>7.3056547619047603</v>
+        <v>7.2896577380952303</v>
       </c>
       <c r="AC89">
-        <v>7.3126488095238003</v>
+        <v>7.2046875000000004</v>
       </c>
       <c r="AD89">
-        <v>7.0133680555555502</v>
+        <v>6.9761904761904701</v>
       </c>
     </row>
     <row r="90" spans="2:30">
@@ -3142,13 +3153,13 @@
         <v>9</v>
       </c>
       <c r="S90">
-        <v>170533</v>
+        <v>143931</v>
       </c>
       <c r="T90">
-        <v>176731</v>
+        <v>153749</v>
       </c>
       <c r="U90">
-        <v>134939</v>
+        <v>117698</v>
       </c>
     </row>
     <row r="91" spans="2:30">
@@ -3176,13 +3187,13 @@
         <v>10</v>
       </c>
       <c r="S91">
-        <v>97430</v>
+        <v>72947</v>
       </c>
       <c r="T91">
-        <v>100726</v>
+        <v>75063</v>
       </c>
       <c r="U91">
-        <v>53458</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="92" spans="2:30">
@@ -3210,13 +3221,13 @@
         <v>11</v>
       </c>
       <c r="S92">
-        <v>45329</v>
+        <v>29327</v>
       </c>
       <c r="T92">
-        <v>45813</v>
+        <v>27162</v>
       </c>
       <c r="U92">
-        <v>14999</v>
+        <v>12291</v>
       </c>
     </row>
     <row r="93" spans="2:30">
@@ -3244,13 +3255,13 @@
         <v>12</v>
       </c>
       <c r="S93">
-        <v>17137</v>
+        <v>9005</v>
       </c>
       <c r="T93">
-        <v>16622</v>
+        <v>7117</v>
       </c>
       <c r="U93">
-        <v>2922</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="94" spans="2:30">
@@ -3278,13 +3289,13 @@
         <v>13</v>
       </c>
       <c r="S94">
-        <v>4899</v>
+        <v>1955</v>
       </c>
       <c r="T94">
-        <v>4763</v>
+        <v>1229</v>
       </c>
       <c r="U94">
-        <v>394</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="2:30">
@@ -3312,13 +3323,13 @@
         <v>14</v>
       </c>
       <c r="S95">
-        <v>1148</v>
+        <v>374</v>
       </c>
       <c r="T95">
-        <v>966</v>
+        <v>170</v>
       </c>
       <c r="U95">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="2:30">
@@ -3346,13 +3357,10 @@
         <v>15</v>
       </c>
       <c r="S96">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="T96">
-        <v>122</v>
-      </c>
-      <c r="U96">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -3377,10 +3385,7 @@
         <v>16</v>
       </c>
       <c r="S97">
-        <v>25</v>
-      </c>
-      <c r="T97">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -3402,7 +3407,7 @@
         <v>17</v>
       </c>
       <c r="S98">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -3418,13 +3423,13 @@
         <v>6.6921807080248703</v>
       </c>
       <c r="S99">
-        <v>7.0304599546794098</v>
+        <v>6.7215995516494402</v>
       </c>
       <c r="T99">
-        <v>7.0741595681296499</v>
+        <v>6.7781642735909404</v>
       </c>
       <c r="U99">
-        <v>6.6271948472979298</v>
+        <v>6.4886577158397998</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -3439,7 +3444,7 @@
     </row>
     <row r="103" spans="1:30">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
         <v>5</v>
@@ -3454,19 +3459,19 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
         <v>16</v>
       </c>
-      <c r="G103" t="s">
-        <v>17</v>
-      </c>
       <c r="J103" t="s">
+        <v>10</v>
+      </c>
+      <c r="K103" t="s">
+        <v>9</v>
+      </c>
+      <c r="L103" t="s">
         <v>11</v>
-      </c>
-      <c r="K103" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" t="s">
-        <v>12</v>
       </c>
       <c r="M103" t="s">
         <v>3</v>
@@ -3475,10 +3480,10 @@
         <v>4</v>
       </c>
       <c r="O103" t="s">
+        <v>15</v>
+      </c>
+      <c r="P103" t="s">
         <v>16</v>
-      </c>
-      <c r="P103" t="s">
-        <v>17</v>
       </c>
       <c r="S103" t="s">
         <v>2</v>
@@ -3490,13 +3495,13 @@
         <v>4</v>
       </c>
       <c r="Z103" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB103" t="s">
         <v>11</v>
-      </c>
-      <c r="AA103" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB103" t="s">
-        <v>12</v>
       </c>
       <c r="AC103" t="s">
         <v>3</v>
@@ -4446,13 +4451,13 @@
         <v>4</v>
       </c>
       <c r="J124" t="s">
+        <v>10</v>
+      </c>
+      <c r="K124" t="s">
+        <v>9</v>
+      </c>
+      <c r="L124" t="s">
         <v>11</v>
-      </c>
-      <c r="K124" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" t="s">
-        <v>12</v>
       </c>
       <c r="M124" t="s">
         <v>3</v>
@@ -4470,13 +4475,13 @@
         <v>4</v>
       </c>
       <c r="Z124" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB124" t="s">
         <v>11</v>
-      </c>
-      <c r="AA124" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB124" t="s">
-        <v>12</v>
       </c>
       <c r="AC124" t="s">
         <v>3</v>
@@ -4487,7 +4492,7 @@
     </row>
     <row r="125" spans="1:30">
       <c r="A125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -5090,13 +5095,13 @@
         <v>4</v>
       </c>
       <c r="J143" t="s">
+        <v>10</v>
+      </c>
+      <c r="K143" t="s">
+        <v>9</v>
+      </c>
+      <c r="L143" t="s">
         <v>11</v>
-      </c>
-      <c r="K143" t="s">
-        <v>10</v>
-      </c>
-      <c r="L143" t="s">
-        <v>12</v>
       </c>
       <c r="M143" t="s">
         <v>3</v>
@@ -5114,13 +5119,13 @@
         <v>4</v>
       </c>
       <c r="Z143" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA143" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB143" t="s">
         <v>11</v>
-      </c>
-      <c r="AA143" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB143" t="s">
-        <v>12</v>
       </c>
       <c r="AC143" t="s">
         <v>3</v>
@@ -5131,7 +5136,7 @@
     </row>
     <row r="144" spans="1:30">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -5728,22 +5733,22 @@
     </row>
     <row r="161" spans="2:13">
       <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
         <v>18</v>
       </c>
-      <c r="D161" t="s">
-        <v>19</v>
-      </c>
       <c r="J161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L161" t="s">
+        <v>17</v>
+      </c>
+      <c r="M161" t="s">
         <v>18</v>
-      </c>
-      <c r="M161" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="162" spans="2:13">
